--- a/test/file.xlsx
+++ b/test/file.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFD1161-FAED-4BA9-B4B3-C50DB43BEF7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B4BBD8-1786-4646-A1DE-EE436303E819}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="node_info" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="108">
   <si>
     <t>节点名称</t>
   </si>
@@ -360,9 +360,6 @@
     <t>VNF1</t>
   </si>
   <si>
-    <t>2 Way</t>
-  </si>
-  <si>
     <t>[V2,V5]</t>
   </si>
   <si>
@@ -402,36 +399,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Service</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>入口</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Service</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>出口</t>
-    </r>
-  </si>
-  <si>
     <t>Service1</t>
   </si>
   <si>
@@ -453,12 +420,6 @@
     <t>App1</t>
   </si>
   <si>
-    <t>D1-&gt;Service2-&gt;D1</t>
-  </si>
-  <si>
-    <t>D1-&gt;T1-&gt;S1-&gt;V1-&gt;V2-&gt;V1&gt;S1-&gt;T1-&gt;D1</t>
-  </si>
-  <si>
     <t>倒换概率</t>
   </si>
   <si>
@@ -468,31 +429,7 @@
     <t>倒换控制链路</t>
   </si>
   <si>
-    <t>迁移概率</t>
-  </si>
-  <si>
-    <t>迁移时间</t>
-  </si>
-  <si>
-    <t>迁移控制链路</t>
-  </si>
-  <si>
-    <t>主机</t>
-  </si>
-  <si>
     <t>10s</t>
-  </si>
-  <si>
-    <t>V1-&gt;P1-&gt;P2-&gt;V1-&gt;S1-&gt;T1-&gt;D1-&gt;T2-&gt;S4-&gt;V10-&gt;P7-&gt;P8</t>
-  </si>
-  <si>
-    <t>V1-&gt;P1-&gt;P2-&gt;V1-&gt;S1-&gt;T1-&gt;D1-&gt;T1-&gt;S2-&gt;V3-&gt;P3-&gt;P4,</t>
-  </si>
-  <si>
-    <t>VNF3</t>
-  </si>
-  <si>
-    <t>V4-&gt;P3-&gt;P4-&gt;V4-&gt;S2-&gt;T1-&gt;D1-&gt;T2-&gt;S4-&gt;V10-&gt;P7-&gt;P8</t>
   </si>
   <si>
     <t xml:space="preserve">  </t>
@@ -500,6 +437,34 @@
   </si>
   <si>
     <t>Proc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[VNF1]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[VNF2]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 Way</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[D1,Service2,D1]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[D1,T1,S1,V1,V2,V1,S1,T1,D1]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[V1,P1,P2,V1,S1,T1,D1,T1,S2,V3,P3,P4,V1,P1,P2,V1,S1,T1,D1,T2,S4,V10,P7,P8]</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -550,7 +515,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -610,33 +575,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -665,19 +608,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1496,7 +1427,7 @@
     </row>
     <row r="6" spans="1:11" ht="47.65" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>75</v>
@@ -1531,7 +1462,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="H13" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1543,10 +1474,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A3B911-966B-4980-B571-93594A234380}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1570,83 +1501,71 @@
         <v>82</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.4">
+      <c r="I21" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD8A273B-7766-4F04-96FF-B284216980DD}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="B2" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="9" t="s">
-        <v>92</v>
-      </c>
       <c r="B3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1660,34 +1579,34 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:4" ht="31.9" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="63.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="79.150000000000006" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="B2" s="4" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -1696,20 +1615,24 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD3D33C-5B85-4A5D-BFDC-B321C95B8066}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="31.9" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="31.9" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>78</v>
       </c>
@@ -1717,112 +1640,50 @@
         <v>79</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="110.65" thickBot="1" x14ac:dyDescent="0.45">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="142.15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4">
+      <c r="B2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="6">
         <v>0.9</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="D2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="94.5" x14ac:dyDescent="0.4">
-      <c r="A3" s="11" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="11">
+      <c r="C3" s="6">
         <v>0.9</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="F3" s="11">
-        <v>0.9</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="110.65" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="12"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" ht="110.65" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>111</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test/file.xlsx
+++ b/test/file.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B4BBD8-1786-4646-A1DE-EE436303E819}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535A5302-AD4B-4217-AB70-7E8BD816ECB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="node_info" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="109">
   <si>
     <t>节点名称</t>
   </si>
@@ -460,11 +460,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>[D1,T1,S1,V1,V2,V1,S1,T1,D1]</t>
+    <t>[V1,P1,P2,V1,S1,T1,D1,T1,S2,V3,P3,P4,V1,P1,P2,V1,S1,T1,D1,T2,S4,V10,P7,P8]</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>[V1,P1,P2,V1,S1,T1,D1,T1,S2,V3,P3,P4,V1,P1,P2,V1,S1,T1,D1,T2,S4,V10,P7,P8]</t>
+    <t>[D1,T1,S1,V1,V3,V1,S1,T1,D1]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[V3]</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -893,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1476,8 +1480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A3B911-966B-4980-B571-93594A234380}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1516,7 +1520,7 @@
         <v>85</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>31</v>
@@ -1539,7 +1543,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1579,7 +1583,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1606,7 +1610,7 @@
         <v>105</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
@@ -1623,7 +1627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD3D33C-5B85-4A5D-BFDC-B321C95B8066}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -1649,7 +1653,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="142.15" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="47.65" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>82</v>
       </c>
@@ -1663,7 +1667,7 @@
         <v>98</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -1680,7 +1684,7 @@
         <v>98</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/test/file.xlsx
+++ b/test/file.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{535A5302-AD4B-4217-AB70-7E8BD816ECB6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B250BA-0F40-41DD-B199-F4B9A524C044}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="node_info" sheetId="1" r:id="rId1"/>
-    <sheet name="fail_info" sheetId="2" r:id="rId2"/>
-    <sheet name="VNF_info" sheetId="3" r:id="rId3"/>
-    <sheet name="Service_info" sheetId="4" r:id="rId4"/>
-    <sheet name="Application_info" sheetId="5" r:id="rId5"/>
-    <sheet name="VNF_evorule" sheetId="6" r:id="rId6"/>
+    <sheet name="edge_info" sheetId="7" r:id="rId2"/>
+    <sheet name="fail_info" sheetId="2" r:id="rId3"/>
+    <sheet name="VNF_info" sheetId="3" r:id="rId4"/>
+    <sheet name="VNF_evorule" sheetId="6" r:id="rId5"/>
+    <sheet name="Service_info" sheetId="4" r:id="rId6"/>
+    <sheet name="Application_info" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="162">
   <si>
     <t>节点名称</t>
   </si>
@@ -33,9 +34,6 @@
     <t>节点类型</t>
   </si>
   <si>
-    <t>叶子节点</t>
-  </si>
-  <si>
     <t>节点上部署的服务</t>
   </si>
   <si>
@@ -45,24 +43,15 @@
     <t>DCGW</t>
   </si>
   <si>
-    <t>T1,T2,P9,P10</t>
-  </si>
-  <si>
     <t>T1</t>
   </si>
   <si>
     <t>TOR</t>
   </si>
   <si>
-    <t>S1,S2</t>
-  </si>
-  <si>
     <t>T2</t>
   </si>
   <si>
-    <t>S3,S4</t>
-  </si>
-  <si>
     <t>S1</t>
   </si>
   <si>
@@ -91,9 +80,6 @@
   </si>
   <si>
     <t>VM</t>
-  </si>
-  <si>
-    <t>V2,V3,P1,P2</t>
   </si>
   <si>
     <t>Vs/LB</t>
@@ -123,9 +109,6 @@
     </r>
   </si>
   <si>
-    <t>V5,V6,P2,P4</t>
-  </si>
-  <si>
     <t>V5</t>
   </si>
   <si>
@@ -150,9 +133,6 @@
     </r>
   </si>
   <si>
-    <t>V8,V9,P5,P6</t>
-  </si>
-  <si>
     <t>V8</t>
   </si>
   <si>
@@ -160,9 +140,6 @@
   </si>
   <si>
     <t>V9</t>
-  </si>
-  <si>
-    <t>P7,P8</t>
   </si>
   <si>
     <t>NCE</t>
@@ -348,12 +325,6 @@
     </r>
   </si>
   <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>工作节点</t>
-  </si>
-  <si>
     <t>备用节点</t>
   </si>
   <si>
@@ -411,12 +382,6 @@
     <t>业务逻辑路径</t>
   </si>
   <si>
-    <t>业务物理路径</t>
-  </si>
-  <si>
-    <t>业务中断时间</t>
-  </si>
-  <si>
     <t>App1</t>
   </si>
   <si>
@@ -426,9 +391,6 @@
     <t>倒换时间</t>
   </si>
   <si>
-    <t>倒换控制链路</t>
-  </si>
-  <si>
     <t>10s</t>
   </si>
   <si>
@@ -452,23 +414,262 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>v</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>[D1,Service2,D1]</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>[V1,P1,P2,V1,S1,T1,D1,T1,S2,V3,P3,P4,V1,P1,P2,V1,S1,T1,D1,T2,S4,V10,P7,P8]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>[D1,T1,S1,V1,V3,V1,S1,T1,D1]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>[V3]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>链路ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>源节点ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的节点ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eg1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eg2</t>
+  </si>
+  <si>
+    <t>Eg3</t>
+  </si>
+  <si>
+    <t>Eg4</t>
+  </si>
+  <si>
+    <t>Eg5</t>
+  </si>
+  <si>
+    <t>Eg6</t>
+  </si>
+  <si>
+    <t>Eg7</t>
+  </si>
+  <si>
+    <t>Eg8</t>
+  </si>
+  <si>
+    <t>Eg9</t>
+  </si>
+  <si>
+    <t>Eg10</t>
+  </si>
+  <si>
+    <t>Eg11</t>
+  </si>
+  <si>
+    <t>Eg12</t>
+  </si>
+  <si>
+    <t>Eg13</t>
+  </si>
+  <si>
+    <t>Eg14</t>
+  </si>
+  <si>
+    <t>Eg15</t>
+  </si>
+  <si>
+    <t>Eg16</t>
+  </si>
+  <si>
+    <t>Eg17</t>
+  </si>
+  <si>
+    <t>Eg18</t>
+  </si>
+  <si>
+    <t>Eg19</t>
+  </si>
+  <si>
+    <t>T1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>S3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>S4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eg20</t>
+  </si>
+  <si>
+    <t>V5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>P4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eg21</t>
+  </si>
+  <si>
+    <t>Eg22</t>
+  </si>
+  <si>
+    <t>Eg23</t>
+  </si>
+  <si>
+    <t>Eg24</t>
+  </si>
+  <si>
+    <t>Eg27</t>
+  </si>
+  <si>
+    <t>Eg28</t>
+  </si>
+  <si>
+    <t>V8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>V9</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作节点</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VNF名称</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VNF3</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>备份类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主机</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[P7]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[P8]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VNF4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VNF5</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VNF6</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>备份类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCGW</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[P9]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>[P10]</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -612,7 +813,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -895,15 +1096,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="47.65" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="47.65" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -913,340 +1114,290 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="31.9" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4"/>
-    </row>
-    <row r="5" spans="1:4" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8" spans="1:4" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4" ht="31.9" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="31.9" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="3" t="s">
+    <row r="19" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="31.9" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="3" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5" t="s">
+      <c r="B20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="3" t="s">
+    <row r="21" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5" t="s">
+      <c r="B21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="4" t="s">
+    <row r="23" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="3" t="s">
+      <c r="B23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="5" t="s">
+      <c r="B25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="3" t="s">
+      <c r="B26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="5" t="s">
+      <c r="B27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="B28" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="5" t="s">
-        <v>43</v>
+        <v>32</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1257,216 +1408,310 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9761E7EC-AE54-4FD1-AF4C-C5F2D976253C}">
-  <dimension ref="A1:K13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0EFA955-3E86-49C6-AFE6-94EB128402D5}">
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="63.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="31.9" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>68</v>
+        <v>144</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="47.65" thickBot="1" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="47.65" thickBot="1" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="H13" t="s">
-        <v>99</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1477,58 +1722,216 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A3B911-966B-4980-B571-93594A234380}">
-  <dimension ref="A1:I21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9761E7EC-AE54-4FD1-AF4C-C5F2D976253C}">
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="31.9" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="6" t="s">
-        <v>78</v>
+    <row r="1" spans="1:11" ht="63.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>85</v>
+        <v>6</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.4">
-      <c r="I21" t="s">
-        <v>104</v>
+        <v>55</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="47.65" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="47.65" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="H13" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1539,82 +1942,127 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD8A273B-7766-4F04-96FF-B284216980DD}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A3B911-966B-4980-B571-93594A234380}">
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="11.1328125" customWidth="1"/>
+    <col min="3" max="3" width="10.73046875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F562E5-BEB4-4841-A149-8C20CAAA0403}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:4" ht="31.9" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="31.9" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="D2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="63.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
+      <c r="E3" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1623,72 +2071,141 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD3D33C-5B85-4A5D-BFDC-B321C95B8066}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="11.86328125" customWidth="1"/>
+    <col min="4" max="4" width="10.9296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.9" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="47.65" thickBot="1" x14ac:dyDescent="0.45">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C2" s="6">
         <v>0.9</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C3" s="6">
         <v>0.9</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD8A273B-7766-4F04-96FF-B284216980DD}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="39.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F562E5-BEB4-4841-A149-8C20CAAA0403}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="31.9" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="31.9" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/test/file.xlsx
+++ b/test/file.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B250BA-0F40-41DD-B199-F4B9A524C044}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{54B250BA-0F40-41DD-B199-F4B9A524C044}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D52FAC28-AE17-3F48-B6ED-CDD4175C4CAA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3300" yWindow="1780" windowWidth="22260" windowHeight="14360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="node_info" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="164">
   <si>
     <t>节点名称</t>
   </si>
@@ -672,12 +672,20 @@
     <t>[P10]</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>[V6]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>主备</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -720,7 +728,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -780,11 +788,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -816,9 +844,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1098,13 +1132,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="47.65" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="33" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1115,7 +1149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="18" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1124,7 +1158,7 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="18" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1133,7 +1167,7 @@
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" ht="18" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1142,7 +1176,7 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="18" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1151,7 +1185,7 @@
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" ht="18" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -1160,7 +1194,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" ht="18" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1169,7 +1203,7 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" ht="18" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -1180,7 +1214,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" ht="18" thickBot="1">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -1191,7 +1225,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" ht="18" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -1202,7 +1236,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" ht="18" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -1213,7 +1247,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" ht="18" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -1224,7 +1258,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" ht="18" thickBot="1">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
@@ -1235,7 +1269,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" ht="18" thickBot="1">
       <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
@@ -1246,7 +1280,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" ht="18" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -1257,7 +1291,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" ht="18" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
@@ -1268,7 +1302,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" ht="18" thickBot="1">
       <c r="A17" s="3" t="s">
         <v>29</v>
       </c>
@@ -1279,7 +1313,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" ht="18" thickBot="1">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -1290,7 +1324,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" ht="18" thickBot="1">
       <c r="A19" s="3" t="s">
         <v>31</v>
       </c>
@@ -1301,7 +1335,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" ht="18" thickBot="1">
       <c r="A20" s="3" t="s">
         <v>34</v>
       </c>
@@ -1312,7 +1346,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" ht="18" thickBot="1">
       <c r="A21" s="3" t="s">
         <v>36</v>
       </c>
@@ -1323,7 +1357,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" ht="18" thickBot="1">
       <c r="A22" s="3" t="s">
         <v>37</v>
       </c>
@@ -1334,7 +1368,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" ht="18" thickBot="1">
       <c r="A23" s="3" t="s">
         <v>38</v>
       </c>
@@ -1345,7 +1379,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" ht="18" thickBot="1">
       <c r="A24" s="3" t="s">
         <v>39</v>
       </c>
@@ -1356,7 +1390,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" ht="18" thickBot="1">
       <c r="A25" s="3" t="s">
         <v>40</v>
       </c>
@@ -1367,7 +1401,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" ht="18" thickBot="1">
       <c r="A26" s="3" t="s">
         <v>41</v>
       </c>
@@ -1378,7 +1412,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" ht="18" thickBot="1">
       <c r="A27" s="3" t="s">
         <v>42</v>
       </c>
@@ -1389,7 +1423,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" ht="18" thickBot="1">
       <c r="A28" s="3" t="s">
         <v>43</v>
       </c>
@@ -1415,9 +1449,9 @@
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="31.9" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="33" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
@@ -1428,7 +1462,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="18" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>96</v>
       </c>
@@ -1439,7 +1473,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="18" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>97</v>
       </c>
@@ -1450,7 +1484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" ht="18" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>98</v>
       </c>
@@ -1461,7 +1495,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="18" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>99</v>
       </c>
@@ -1472,7 +1506,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" ht="18" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>100</v>
       </c>
@@ -1483,7 +1517,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" ht="18" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>101</v>
       </c>
@@ -1494,7 +1528,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" ht="18" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>102</v>
       </c>
@@ -1505,7 +1539,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" ht="18" thickBot="1">
       <c r="A9" s="3" t="s">
         <v>103</v>
       </c>
@@ -1516,7 +1550,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" ht="18" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>104</v>
       </c>
@@ -1527,7 +1561,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" ht="18" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>105</v>
       </c>
@@ -1538,7 +1572,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" ht="18" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>106</v>
       </c>
@@ -1549,7 +1583,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" ht="18" thickBot="1">
       <c r="A13" s="3" t="s">
         <v>107</v>
       </c>
@@ -1560,7 +1594,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" ht="18" thickBot="1">
       <c r="A14" s="3" t="s">
         <v>108</v>
       </c>
@@ -1571,7 +1605,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" ht="18" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>109</v>
       </c>
@@ -1582,7 +1616,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" ht="18" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>110</v>
       </c>
@@ -1593,7 +1627,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" ht="18" thickBot="1">
       <c r="A17" s="3" t="s">
         <v>111</v>
       </c>
@@ -1604,7 +1638,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" ht="18" thickBot="1">
       <c r="A18" s="3" t="s">
         <v>112</v>
       </c>
@@ -1615,7 +1649,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" ht="18" thickBot="1">
       <c r="A19" s="3" t="s">
         <v>113</v>
       </c>
@@ -1626,7 +1660,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" ht="18" thickBot="1">
       <c r="A20" s="3" t="s">
         <v>114</v>
       </c>
@@ -1637,7 +1671,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" ht="18" thickBot="1">
       <c r="A21" s="3" t="s">
         <v>131</v>
       </c>
@@ -1648,7 +1682,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" ht="18" thickBot="1">
       <c r="A22" s="3" t="s">
         <v>136</v>
       </c>
@@ -1659,7 +1693,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" ht="18" thickBot="1">
       <c r="A23" s="3" t="s">
         <v>137</v>
       </c>
@@ -1670,7 +1704,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" ht="18" thickBot="1">
       <c r="A24" s="3" t="s">
         <v>138</v>
       </c>
@@ -1681,7 +1715,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" ht="18" thickBot="1">
       <c r="A25" s="3" t="s">
         <v>139</v>
       </c>
@@ -1692,7 +1726,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" ht="18" thickBot="1">
       <c r="A26" s="3" t="s">
         <v>140</v>
       </c>
@@ -1703,7 +1737,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" ht="18" thickBot="1">
       <c r="A27" s="3" t="s">
         <v>141</v>
       </c>
@@ -1729,9 +1763,9 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="63.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="49" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1766,7 +1800,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" ht="18" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1797,7 +1831,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" ht="18" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1828,7 +1862,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" ht="18" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1859,7 +1893,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="47.65" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" ht="33" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1894,7 +1928,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="47.65" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="33" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>87</v>
       </c>
@@ -1929,7 +1963,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11">
       <c r="H13" t="s">
         <v>86</v>
       </c>
@@ -1943,19 +1977,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A3B911-966B-4980-B571-93594A234380}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.1328125" customWidth="1"/>
-    <col min="3" max="3" width="10.73046875" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.9" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="17" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>147</v>
       </c>
@@ -1972,7 +2006,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="17" thickBot="1">
       <c r="A2" s="10" t="s">
         <v>72</v>
       </c>
@@ -1987,7 +2021,7 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" ht="17" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>74</v>
       </c>
@@ -1995,16 +2029,16 @@
         <v>145</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>92</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="17" thickBot="1">
       <c r="A4" s="10" t="s">
         <v>148</v>
       </c>
@@ -2019,7 +2053,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" ht="17" thickBot="1">
       <c r="A5" s="10" t="s">
         <v>155</v>
       </c>
@@ -2034,7 +2068,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" ht="17" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>156</v>
       </c>
@@ -2049,7 +2083,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" ht="17" thickBot="1">
       <c r="A7" s="10" t="s">
         <v>157</v>
       </c>
@@ -2063,6 +2097,12 @@
         <v>161</v>
       </c>
       <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -2079,14 +2119,14 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.86328125" customWidth="1"/>
-    <col min="4" max="4" width="10.9296875" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="18" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>70</v>
       </c>
@@ -2100,7 +2140,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="18" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>72</v>
       </c>
@@ -2114,7 +2154,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" ht="15" customHeight="1" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>74</v>
       </c>
@@ -2142,12 +2182,12 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="32.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="34" thickBot="1">
       <c r="A1" s="7" t="s">
         <v>76</v>
       </c>
@@ -2155,7 +2195,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" ht="18" thickBot="1">
       <c r="A2" s="9" t="s">
         <v>78</v>
       </c>
@@ -2163,7 +2203,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" ht="18" thickBot="1">
       <c r="A3" s="9" t="s">
         <v>79</v>
       </c>
@@ -2181,13 +2221,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F562E5-BEB4-4841-A149-8C20CAAA0403}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="140" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="21" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="31.9" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="17" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>80</v>
       </c>
@@ -2195,7 +2238,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="31.9" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" ht="18" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>82</v>
       </c>

--- a/test/file.xlsx
+++ b/test/file.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{54B250BA-0F40-41DD-B199-F4B9A524C044}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D52FAC28-AE17-3F48-B6ED-CDD4175C4CAA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490B836B-5D24-4C9F-9782-FAE8772F32CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="1780" windowWidth="22260" windowHeight="14360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3300" yWindow="1778" windowWidth="22260" windowHeight="14363" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="node_info" sheetId="1" r:id="rId1"/>
@@ -685,7 +685,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -852,7 +852,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1132,13 +1132,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="33" thickBot="1">
+    <row r="1" spans="1:3" ht="47.65" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" thickBot="1">
+    <row r="2" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1158,7 +1158,7 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="18" thickBot="1">
+    <row r="3" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" ht="18" thickBot="1">
+    <row r="4" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1176,7 +1176,7 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" ht="18" thickBot="1">
+    <row r="5" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1185,7 +1185,7 @@
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="18" thickBot="1">
+    <row r="6" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" ht="18" thickBot="1">
+    <row r="7" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" ht="18" thickBot="1">
+    <row r="8" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18" thickBot="1">
+    <row r="9" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" thickBot="1">
+    <row r="10" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18" thickBot="1">
+    <row r="11" spans="1:3" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18" thickBot="1">
+    <row r="12" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18" thickBot="1">
+    <row r="13" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18" thickBot="1">
+    <row r="14" spans="1:3" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="18" thickBot="1">
+    <row r="15" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
@@ -1291,7 +1291,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18" thickBot="1">
+    <row r="16" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18" thickBot="1">
+    <row r="17" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>29</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18" thickBot="1">
+    <row r="18" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18" thickBot="1">
+    <row r="19" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>31</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18" thickBot="1">
+    <row r="20" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>34</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18" thickBot="1">
+    <row r="21" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>36</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18" thickBot="1">
+    <row r="22" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>37</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18" thickBot="1">
+    <row r="23" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>38</v>
       </c>
@@ -1379,7 +1379,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="18" thickBot="1">
+    <row r="24" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>39</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18" thickBot="1">
+    <row r="25" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>40</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18" thickBot="1">
+    <row r="26" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>41</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18" thickBot="1">
+    <row r="27" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>42</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18" thickBot="1">
+    <row r="28" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>43</v>
       </c>
@@ -1449,9 +1449,9 @@
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="33" thickBot="1">
+    <row r="1" spans="1:3" ht="31.9" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>93</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" thickBot="1">
+    <row r="2" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>96</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" thickBot="1">
+    <row r="3" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>97</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" thickBot="1">
+    <row r="4" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>98</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18" thickBot="1">
+    <row r="5" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>99</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18" thickBot="1">
+    <row r="6" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>100</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18" thickBot="1">
+    <row r="7" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>101</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18" thickBot="1">
+    <row r="8" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>102</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18" thickBot="1">
+    <row r="9" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>103</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" thickBot="1">
+    <row r="10" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>104</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18" thickBot="1">
+    <row r="11" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>105</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18" thickBot="1">
+    <row r="12" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>106</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18" thickBot="1">
+    <row r="13" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>107</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18" thickBot="1">
+    <row r="14" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>108</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="18" thickBot="1">
+    <row r="15" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>109</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18" thickBot="1">
+    <row r="16" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>110</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18" thickBot="1">
+    <row r="17" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>111</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18" thickBot="1">
+    <row r="18" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>112</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18" thickBot="1">
+    <row r="19" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>113</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18" thickBot="1">
+    <row r="20" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>114</v>
       </c>
@@ -1671,7 +1671,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18" thickBot="1">
+    <row r="21" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>131</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18" thickBot="1">
+    <row r="22" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>136</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18" thickBot="1">
+    <row r="23" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>137</v>
       </c>
@@ -1704,7 +1704,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="18" thickBot="1">
+    <row r="24" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>138</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18" thickBot="1">
+    <row r="25" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>139</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18" thickBot="1">
+    <row r="26" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>140</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18" thickBot="1">
+    <row r="27" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>141</v>
       </c>
@@ -1763,9 +1763,9 @@
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="49" thickBot="1">
+    <row r="1" spans="1:11" ht="63.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18" thickBot="1">
+    <row r="2" spans="1:11" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18" thickBot="1">
+    <row r="3" spans="1:11" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18" thickBot="1">
+    <row r="4" spans="1:11" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="33" thickBot="1">
+    <row r="5" spans="1:11" ht="47.65" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="33" thickBot="1">
+    <row r="6" spans="1:11" ht="47.65" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>87</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="H13" t="s">
         <v>86</v>
       </c>
@@ -1980,16 +1980,16 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.1328125" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" thickBot="1">
+    <row r="1" spans="1:5" ht="31.9" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>147</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17" thickBot="1">
+    <row r="2" spans="1:5" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="10" t="s">
         <v>72</v>
       </c>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="17" thickBot="1">
+    <row r="3" spans="1:5" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="10" t="s">
         <v>74</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17" thickBot="1">
+    <row r="4" spans="1:5" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>148</v>
       </c>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="17" thickBot="1">
+    <row r="5" spans="1:5" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="10" t="s">
         <v>155</v>
       </c>
@@ -2068,7 +2068,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="17" thickBot="1">
+    <row r="6" spans="1:5" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="10" t="s">
         <v>156</v>
       </c>
@@ -2083,7 +2083,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="17" thickBot="1">
+    <row r="7" spans="1:5" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="10" t="s">
         <v>157</v>
       </c>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -2119,14 +2119,14 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.796875" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" thickBot="1">
+    <row r="1" spans="1:4" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>70</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" thickBot="1">
+    <row r="2" spans="1:4" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>72</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" thickBot="1">
+    <row r="3" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>74</v>
       </c>
@@ -2182,12 +2182,12 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="39.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="34" thickBot="1">
+    <row r="1" spans="1:2" ht="31.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>76</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" thickBot="1">
+    <row r="2" spans="1:2" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
         <v>78</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="18" thickBot="1">
+    <row r="3" spans="1:2" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
         <v>79</v>
       </c>
@@ -2225,12 +2225,12 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1">
+    <row r="1" spans="1:2" ht="31.9" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>80</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" thickBot="1">
+    <row r="2" spans="1:2" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>82</v>
       </c>

--- a/test/file.xlsx
+++ b/test/file.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490B836B-5D24-4C9F-9782-FAE8772F32CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5A18BC-6F03-415D-9118-4B1BB38664A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3300" yWindow="1778" windowWidth="22260" windowHeight="14363" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -728,7 +728,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -788,31 +788,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -842,12 +822,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1132,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1446,7 +1420,7 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1760,7 +1734,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1977,10 +1951,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A3B911-966B-4980-B571-93594A234380}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="132" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2098,12 +2072,6 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2115,8 +2083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD3D33C-5B85-4A5D-BFDC-B321C95B8066}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2179,7 +2147,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2221,12 +2189,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F562E5-BEB4-4841-A149-8C20CAAA0403}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView zoomScale="140" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="1" max="1" width="10.19921875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>

--- a/test/file.xlsx
+++ b/test/file.xlsx
@@ -3,18 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5A18BC-6F03-415D-9118-4B1BB38664A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F346AB9-73E1-401F-9E52-4E9CFD3F29BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="1778" windowWidth="22260" windowHeight="14363" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3300" yWindow="1778" windowWidth="22260" windowHeight="14363" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="node_info" sheetId="1" r:id="rId1"/>
     <sheet name="edge_info" sheetId="7" r:id="rId2"/>
     <sheet name="fail_info" sheetId="2" r:id="rId3"/>
     <sheet name="VNF_info" sheetId="3" r:id="rId4"/>
-    <sheet name="VNF_evorule" sheetId="6" r:id="rId5"/>
-    <sheet name="Service_info" sheetId="4" r:id="rId6"/>
-    <sheet name="Application_info" sheetId="5" r:id="rId7"/>
+    <sheet name="Application_info" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="158">
   <si>
     <t>节点名称</t>
   </si>
@@ -58,40 +56,22 @@
     <t>Server</t>
   </si>
   <si>
-    <t>V1</t>
-  </si>
-  <si>
     <t>S2</t>
   </si>
   <si>
-    <t>V4</t>
-  </si>
-  <si>
     <t>S3</t>
   </si>
   <si>
-    <t>V7</t>
-  </si>
-  <si>
     <t>S4</t>
   </si>
   <si>
-    <t>V10</t>
-  </si>
-  <si>
     <t>VM</t>
   </si>
   <si>
     <t>Vs/LB</t>
   </si>
   <si>
-    <t>V2</t>
-  </si>
-  <si>
     <t>VNF1_1</t>
-  </si>
-  <si>
-    <t>V3</t>
   </si>
   <si>
     <r>
@@ -109,13 +89,7 @@
     </r>
   </si>
   <si>
-    <t>V5</t>
-  </si>
-  <si>
     <t>VNF1_2</t>
-  </si>
-  <si>
-    <t>V6</t>
   </si>
   <si>
     <r>
@@ -133,13 +107,7 @@
     </r>
   </si>
   <si>
-    <t>V8</t>
-  </si>
-  <si>
     <t>空</t>
-  </si>
-  <si>
-    <t>V9</t>
   </si>
   <si>
     <t>NCE</t>
@@ -310,21 +278,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>VNF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>名称</t>
-    </r>
-  </si>
-  <si>
     <t>备用节点</t>
   </si>
   <si>
@@ -337,367 +290,359 @@
     <t>VNF2</t>
   </si>
   <si>
+    <t>业务名称</t>
+  </si>
+  <si>
+    <t>业务逻辑路径</t>
+  </si>
+  <si>
+    <t>App1</t>
+  </si>
+  <si>
+    <t>倒换概率</t>
+  </si>
+  <si>
+    <t>倒换时间</t>
+  </si>
+  <si>
+    <t>10s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Proc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 Way</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[V3]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>链路ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>源节点ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的节点ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eg1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eg2</t>
+  </si>
+  <si>
+    <t>Eg3</t>
+  </si>
+  <si>
+    <t>Eg4</t>
+  </si>
+  <si>
+    <t>Eg5</t>
+  </si>
+  <si>
+    <t>Eg6</t>
+  </si>
+  <si>
+    <t>Eg7</t>
+  </si>
+  <si>
+    <t>Eg8</t>
+  </si>
+  <si>
+    <t>Eg9</t>
+  </si>
+  <si>
+    <t>Eg10</t>
+  </si>
+  <si>
+    <t>Eg11</t>
+  </si>
+  <si>
+    <t>Eg12</t>
+  </si>
+  <si>
+    <t>Eg13</t>
+  </si>
+  <si>
+    <t>Eg14</t>
+  </si>
+  <si>
+    <t>Eg15</t>
+  </si>
+  <si>
+    <t>Eg16</t>
+  </si>
+  <si>
+    <t>Eg17</t>
+  </si>
+  <si>
+    <t>Eg18</t>
+  </si>
+  <si>
+    <t>Eg19</t>
+  </si>
+  <si>
+    <t>T1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>T2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P9</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P10</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>S4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V7</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eg20</t>
+  </si>
+  <si>
+    <t>V5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>P4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eg21</t>
+  </si>
+  <si>
+    <t>Eg22</t>
+  </si>
+  <si>
+    <t>Eg23</t>
+  </si>
+  <si>
+    <t>Eg24</t>
+  </si>
+  <si>
+    <t>Eg27</t>
+  </si>
+  <si>
+    <t>Eg28</t>
+  </si>
+  <si>
+    <t>D1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作节点</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VNF名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VNF3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>备份类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[P7]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[P8]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VNF4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VNF5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VNF6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCGW</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[P9]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[P10]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[V6]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>主备</t>
-  </si>
-  <si>
-    <r>
-      <t>Service</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>名称</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Service</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>路径</t>
-    </r>
-  </si>
-  <si>
-    <t>Service1</t>
-  </si>
-  <si>
-    <t>Service2</t>
-  </si>
-  <si>
-    <t>业务名称</t>
-  </si>
-  <si>
-    <t>业务逻辑路径</t>
-  </si>
-  <si>
-    <t>App1</t>
-  </si>
-  <si>
-    <t>倒换概率</t>
-  </si>
-  <si>
-    <t>倒换时间</t>
-  </si>
-  <si>
-    <t>10s</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Proc</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>[VNF1]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>[VNF2]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 Way</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>[D1,Service2,D1]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>[V3]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>链路ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>源节点ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>目的节点ID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eg1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eg2</t>
-  </si>
-  <si>
-    <t>Eg3</t>
-  </si>
-  <si>
-    <t>Eg4</t>
-  </si>
-  <si>
-    <t>Eg5</t>
-  </si>
-  <si>
-    <t>Eg6</t>
-  </si>
-  <si>
-    <t>Eg7</t>
-  </si>
-  <si>
-    <t>Eg8</t>
-  </si>
-  <si>
-    <t>Eg9</t>
-  </si>
-  <si>
-    <t>Eg10</t>
-  </si>
-  <si>
-    <t>Eg11</t>
-  </si>
-  <si>
-    <t>Eg12</t>
-  </si>
-  <si>
-    <t>Eg13</t>
-  </si>
-  <si>
-    <t>Eg14</t>
-  </si>
-  <si>
-    <t>Eg15</t>
-  </si>
-  <si>
-    <t>Eg16</t>
-  </si>
-  <si>
-    <t>Eg17</t>
-  </si>
-  <si>
-    <t>Eg18</t>
-  </si>
-  <si>
-    <t>Eg19</t>
-  </si>
-  <si>
-    <t>T1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>T2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>S1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>S2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P9</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>S3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>S4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[D1,VNF2,D1]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vs1</t>
+  </si>
+  <si>
+    <t>Vs1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>V1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vs2</t>
+  </si>
+  <si>
+    <t>Vs2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vs3</t>
+  </si>
+  <si>
+    <t>Vs3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>V4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V6</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vswitch</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>V7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>V10</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>V2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>V3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eg20</t>
-  </si>
-  <si>
-    <t>V5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>V6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>P4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eg21</t>
-  </si>
-  <si>
-    <t>Eg22</t>
-  </si>
-  <si>
-    <t>Eg23</t>
-  </si>
-  <si>
-    <t>Eg24</t>
-  </si>
-  <si>
-    <t>Eg27</t>
-  </si>
-  <si>
-    <t>Eg28</t>
-  </si>
-  <si>
-    <t>V8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>V9</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作节点</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>VNF名称</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>VNF3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>备份类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>主机</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>NCE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>[P7]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>[P8]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>VNF4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>VNF5</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>VNF6</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>备份类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>DCGW</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>[P9]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>[P10]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>[V6]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>主备</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vs1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EOR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -792,36 +737,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1106,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1161,7 +1097,7 @@
     </row>
     <row r="6" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>9</v>
@@ -1170,7 +1106,7 @@
     </row>
     <row r="7" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>9</v>
@@ -1179,237 +1115,237 @@
     </row>
     <row r="8" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>17</v>
+        <v>154</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>17</v>
+        <v>154</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>23</v>
+        <v>150</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
-        <v>27</v>
+        <v>152</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
-        <v>29</v>
+        <v>153</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1420,39 +1356,39 @@
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:3" ht="31.9" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
@@ -1460,270 +1396,270 @@
     </row>
     <row r="4" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>102</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>123</v>
+        <v>156</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1731,10 +1667,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9761E7EC-AE54-4FD1-AF4C-C5F2D976253C}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1744,34 +1680,34 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
@@ -1779,171 +1715,237 @@
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>157</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="47.65" thickBot="1" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="E5" s="4">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
       <c r="I5" s="4" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="47.65" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E6" s="4">
         <v>0.9</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G6" s="4">
         <v>0.9</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="I6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="47.65" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="47.65" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="D8" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="H13" t="s">
-        <v>86</v>
+      <c r="I8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="H15" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1951,10 +1953,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A3B911-966B-4980-B571-93594A234380}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1963,234 +1965,154 @@
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31.9" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="31.9" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>90</v>
-      </c>
       <c r="D2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="10" t="s">
-        <v>148</v>
+        <v>139</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="10" t="s">
-        <v>155</v>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="10" t="s">
-        <v>156</v>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="7" t="s">
+        <v>134</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="10" t="s">
-        <v>157</v>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD3D33C-5B85-4A5D-BFDC-B321C95B8066}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="11.796875" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD8A273B-7766-4F04-96FF-B284216980DD}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="2" width="39.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="31.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F562E5-BEB4-4841-A149-8C20CAAA0403}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2199,24 +2121,24 @@
     <col min="2" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="31.9" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/test/file.xlsx
+++ b/test/file.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F346AB9-73E1-401F-9E52-4E9CFD3F29BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460B1814-9931-48D5-B7C3-FBB413EB9055}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="1778" windowWidth="22260" windowHeight="14363" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3300" yWindow="1778" windowWidth="22260" windowHeight="14363" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="node_info" sheetId="1" r:id="rId1"/>
@@ -284,9 +284,6 @@
     <t>VNF1</t>
   </si>
   <si>
-    <t>[V2,V5]</t>
-  </si>
-  <si>
     <t>VNF2</t>
   </si>
   <si>
@@ -320,10 +317,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>[V3]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>链路ID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -559,10 +552,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>[V6]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>主备</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -629,6 +618,18 @@
   </si>
   <si>
     <t>EOR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[V1,V3]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[V2]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[V4]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1126,10 +1127,10 @@
     </row>
     <row r="9" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>14</v>
@@ -1137,7 +1138,7 @@
     </row>
     <row r="10" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>13</v>
@@ -1148,7 +1149,7 @@
     </row>
     <row r="11" spans="1:3" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>13</v>
@@ -1159,10 +1160,10 @@
     </row>
     <row r="12" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
@@ -1170,7 +1171,7 @@
     </row>
     <row r="13" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>13</v>
@@ -1181,7 +1182,7 @@
     </row>
     <row r="14" spans="1:3" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>13</v>
@@ -1192,10 +1193,10 @@
     </row>
     <row r="15" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>14</v>
@@ -1203,7 +1204,7 @@
     </row>
     <row r="16" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>13</v>
@@ -1214,7 +1215,7 @@
     </row>
     <row r="17" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>13</v>
@@ -1225,7 +1226,7 @@
     </row>
     <row r="18" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>13</v>
@@ -1363,32 +1364,32 @@
   <sheetData>
     <row r="1" spans="1:3" ht="31.9" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>7</v>
@@ -1396,230 +1397,230 @@
     </row>
     <row r="4" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>28</v>
@@ -1627,10 +1628,10 @@
     </row>
     <row r="25" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>29</v>
@@ -1638,10 +1639,10 @@
     </row>
     <row r="26" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>30</v>
@@ -1649,10 +1650,10 @@
     </row>
     <row r="27" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>31</v>
@@ -1669,7 +1670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9761E7EC-AE54-4FD1-AF4C-C5F2D976253C}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -1743,7 +1744,7 @@
     </row>
     <row r="3" spans="1:11" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>50</v>
@@ -1836,7 +1837,7 @@
     </row>
     <row r="6" spans="1:11" ht="47.65" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>52</v>
@@ -1906,7 +1907,7 @@
     </row>
     <row r="8" spans="1:11" ht="47.65" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>57</v>
@@ -1941,7 +1942,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="H15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1955,8 +1956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A3B911-966B-4980-B571-93594A234380}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1967,25 +1968,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="31.9" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>60</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
@@ -1993,57 +1994,57 @@
         <v>61</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="6">
         <v>0.9</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="F3" s="6">
         <v>0.9</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
@@ -2051,16 +2052,16 @@
     </row>
     <row r="5" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -2068,16 +2069,16 @@
     </row>
     <row r="6" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>136</v>
-      </c>
       <c r="C6" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -2085,16 +2086,16 @@
     </row>
     <row r="7" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -2123,18 +2124,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/test/file.xlsx
+++ b/test/file.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460B1814-9931-48D5-B7C3-FBB413EB9055}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="1778" windowWidth="22260" windowHeight="14363" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3300" yWindow="1785" windowWidth="22260" windowHeight="14370" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="node_info" sheetId="1" r:id="rId1"/>
@@ -14,7 +13,7 @@
     <sheet name="VNF_info" sheetId="3" r:id="rId4"/>
     <sheet name="Application_info" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="160">
   <si>
     <t>节点名称</t>
   </si>
@@ -632,12 +631,20 @@
     <t>[V4]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>App2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[D1,VNF1,D1]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1040,16 +1047,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="47.65" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="29.25" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1060,7 +1067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="16.5" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1069,7 +1076,7 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="16.5" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1078,7 +1085,7 @@
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" ht="16.5" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1087,7 +1094,7 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="16.5" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1096,7 +1103,7 @@
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" ht="16.5" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1105,7 +1112,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" ht="16.5" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1114,7 +1121,7 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" ht="16.5" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1125,7 +1132,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" ht="16.5" thickBot="1">
       <c r="A9" s="3" t="s">
         <v>140</v>
       </c>
@@ -1136,7 +1143,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" ht="16.5" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>141</v>
       </c>
@@ -1147,7 +1154,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" ht="16.5" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>142</v>
       </c>
@@ -1158,7 +1165,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" ht="16.5" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>144</v>
       </c>
@@ -1169,7 +1176,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" ht="16.5" thickBot="1">
       <c r="A13" s="3" t="s">
         <v>147</v>
       </c>
@@ -1180,7 +1187,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" ht="16.5" thickBot="1">
       <c r="A14" s="3" t="s">
         <v>148</v>
       </c>
@@ -1191,7 +1198,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" ht="16.5" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>146</v>
       </c>
@@ -1202,7 +1209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" ht="16.5" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>149</v>
       </c>
@@ -1213,7 +1220,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" ht="16.5" thickBot="1">
       <c r="A17" s="3" t="s">
         <v>150</v>
       </c>
@@ -1224,7 +1231,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" ht="16.5" thickBot="1">
       <c r="A18" s="3" t="s">
         <v>152</v>
       </c>
@@ -1235,7 +1242,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" ht="16.5" thickBot="1">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
@@ -1246,7 +1253,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" ht="16.5" thickBot="1">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
@@ -1257,7 +1264,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" ht="16.5" thickBot="1">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
@@ -1268,7 +1275,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" ht="16.5" thickBot="1">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -1279,7 +1286,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" ht="16.5" thickBot="1">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -1290,7 +1297,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" ht="16.5" thickBot="1">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -1301,7 +1308,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" ht="16.5" thickBot="1">
       <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
@@ -1312,7 +1319,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" ht="16.5" thickBot="1">
       <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
@@ -1323,7 +1330,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" ht="16.5" thickBot="1">
       <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
@@ -1334,7 +1341,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" ht="16.5" thickBot="1">
       <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
@@ -1353,16 +1360,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0EFA955-3E86-49C6-AFE6-94EB128402D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="31.9" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="29.25" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
@@ -1373,7 +1380,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" ht="16.5" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>75</v>
       </c>
@@ -1384,7 +1391,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" ht="16.5" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>76</v>
       </c>
@@ -1395,7 +1402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" ht="16.5" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>77</v>
       </c>
@@ -1406,7 +1413,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" ht="16.5" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>78</v>
       </c>
@@ -1417,7 +1424,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" ht="16.5" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>79</v>
       </c>
@@ -1428,7 +1435,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" ht="16.5" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>80</v>
       </c>
@@ -1439,7 +1446,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" ht="16.5" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
@@ -1450,7 +1457,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" ht="16.5" thickBot="1">
       <c r="A9" s="3" t="s">
         <v>82</v>
       </c>
@@ -1461,7 +1468,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" ht="16.5" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>83</v>
       </c>
@@ -1472,7 +1479,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" ht="16.5" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>84</v>
       </c>
@@ -1483,7 +1490,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" ht="16.5" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>85</v>
       </c>
@@ -1494,7 +1501,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" ht="16.5" thickBot="1">
       <c r="A13" s="3" t="s">
         <v>86</v>
       </c>
@@ -1505,7 +1512,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" ht="16.5" thickBot="1">
       <c r="A14" s="3" t="s">
         <v>87</v>
       </c>
@@ -1516,7 +1523,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" ht="16.5" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>88</v>
       </c>
@@ -1527,7 +1534,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" ht="16.5" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>89</v>
       </c>
@@ -1538,7 +1545,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" ht="16.5" thickBot="1">
       <c r="A17" s="3" t="s">
         <v>90</v>
       </c>
@@ -1549,7 +1556,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" ht="16.5" thickBot="1">
       <c r="A18" s="3" t="s">
         <v>91</v>
       </c>
@@ -1560,7 +1567,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" ht="16.5" thickBot="1">
       <c r="A19" s="3" t="s">
         <v>92</v>
       </c>
@@ -1571,7 +1578,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" ht="16.5" thickBot="1">
       <c r="A20" s="3" t="s">
         <v>93</v>
       </c>
@@ -1582,7 +1589,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" ht="16.5" thickBot="1">
       <c r="A21" s="3" t="s">
         <v>109</v>
       </c>
@@ -1593,7 +1600,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" ht="16.5" thickBot="1">
       <c r="A22" s="3" t="s">
         <v>114</v>
       </c>
@@ -1604,7 +1611,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" ht="16.5" thickBot="1">
       <c r="A23" s="3" t="s">
         <v>115</v>
       </c>
@@ -1615,7 +1622,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" ht="16.5" thickBot="1">
       <c r="A24" s="3" t="s">
         <v>116</v>
       </c>
@@ -1626,7 +1633,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" ht="16.5" thickBot="1">
       <c r="A25" s="3" t="s">
         <v>117</v>
       </c>
@@ -1637,7 +1644,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" ht="16.5" thickBot="1">
       <c r="A26" s="3" t="s">
         <v>118</v>
       </c>
@@ -1648,7 +1655,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" ht="16.5" thickBot="1">
       <c r="A27" s="3" t="s">
         <v>119</v>
       </c>
@@ -1667,16 +1674,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9761E7EC-AE54-4FD1-AF4C-C5F2D976253C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="63.4" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="43.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1711,7 +1718,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" ht="16.5" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1742,7 +1749,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" ht="16.5" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>154</v>
       </c>
@@ -1773,7 +1780,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1804,7 +1811,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1835,7 +1842,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="47.65" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="29.25" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>151</v>
       </c>
@@ -1870,7 +1877,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="47.65" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" ht="29.25" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1905,7 +1912,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="47.65" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" ht="29.25" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>70</v>
       </c>
@@ -1940,7 +1947,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11">
       <c r="H15" t="s">
         <v>69</v>
       </c>
@@ -1953,20 +1960,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74A3B911-966B-4980-B571-93594A234380}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="11.1328125" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.9" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
@@ -1989,7 +1996,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" ht="16.5" thickBot="1">
       <c r="A2" s="7" t="s">
         <v>61</v>
       </c>
@@ -2010,7 +2017,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" ht="16.5" thickBot="1">
       <c r="A3" s="7" t="s">
         <v>62</v>
       </c>
@@ -2033,7 +2040,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="15" thickBot="1">
       <c r="A4" s="7" t="s">
         <v>124</v>
       </c>
@@ -2050,7 +2057,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="15" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>131</v>
       </c>
@@ -2067,7 +2074,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="15" thickBot="1">
       <c r="A6" s="7" t="s">
         <v>132</v>
       </c>
@@ -2084,7 +2091,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="15" thickBot="1">
       <c r="A7" s="7" t="s">
         <v>133</v>
       </c>
@@ -2109,20 +2116,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F562E5-BEB4-4841-A149-8C20CAAA0403}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.19921875" customWidth="1"/>
+    <col min="1" max="1" width="10.25" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -2130,12 +2137,20 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" ht="16.5" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" thickBot="1">
+      <c r="A3" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/test/file.xlsx
+++ b/test/file.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_6E3657465EED7B3D68F2F4F0FC8208866CF0AD16" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B5885E08-94B4-684E-AC35-D2323618B48F}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="1785" windowWidth="22260" windowHeight="14370" activeTab="4"/>
+    <workbookView xWindow="3300" yWindow="1780" windowWidth="22260" windowHeight="14380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="node_info" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="161">
   <si>
     <t>节点名称</t>
   </si>
@@ -639,11 +640,15 @@
     <t>[D1,VNF1,D1]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>App3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -770,7 +775,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1047,16 +1052,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="29.25" thickBot="1">
+    <row r="1" spans="1:3" ht="49" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1067,7 +1072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5" thickBot="1">
+    <row r="2" spans="1:3" ht="18" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1076,7 +1081,7 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="16.5" thickBot="1">
+    <row r="3" spans="1:3" ht="18" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1085,7 +1090,7 @@
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1">
+    <row r="4" spans="1:3" ht="18" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1094,7 +1099,7 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" ht="16.5" thickBot="1">
+    <row r="5" spans="1:3" ht="18" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1103,7 +1108,7 @@
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1">
+    <row r="6" spans="1:3" ht="18" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1112,7 +1117,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" ht="16.5" thickBot="1">
+    <row r="7" spans="1:3" ht="18" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1121,7 +1126,7 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" ht="16.5" thickBot="1">
+    <row r="8" spans="1:3" ht="18" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1132,7 +1137,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5" thickBot="1">
+    <row r="9" spans="1:3" ht="18" thickBot="1">
       <c r="A9" s="3" t="s">
         <v>140</v>
       </c>
@@ -1143,7 +1148,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.5" thickBot="1">
+    <row r="10" spans="1:3" ht="18" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>141</v>
       </c>
@@ -1154,7 +1159,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16.5" thickBot="1">
+    <row r="11" spans="1:3" ht="18" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>142</v>
       </c>
@@ -1165,7 +1170,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.5" thickBot="1">
+    <row r="12" spans="1:3" ht="18" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>144</v>
       </c>
@@ -1176,7 +1181,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16.5" thickBot="1">
+    <row r="13" spans="1:3" ht="18" thickBot="1">
       <c r="A13" s="3" t="s">
         <v>147</v>
       </c>
@@ -1187,7 +1192,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.5" thickBot="1">
+    <row r="14" spans="1:3" ht="18" thickBot="1">
       <c r="A14" s="3" t="s">
         <v>148</v>
       </c>
@@ -1198,7 +1203,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16.5" thickBot="1">
+    <row r="15" spans="1:3" ht="18" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>146</v>
       </c>
@@ -1209,7 +1214,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16.5" thickBot="1">
+    <row r="16" spans="1:3" ht="18" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>149</v>
       </c>
@@ -1220,7 +1225,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16.5" thickBot="1">
+    <row r="17" spans="1:3" ht="18" thickBot="1">
       <c r="A17" s="3" t="s">
         <v>150</v>
       </c>
@@ -1231,7 +1236,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16.5" thickBot="1">
+    <row r="18" spans="1:3" ht="18" thickBot="1">
       <c r="A18" s="3" t="s">
         <v>152</v>
       </c>
@@ -1242,7 +1247,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16.5" thickBot="1">
+    <row r="19" spans="1:3" ht="18" thickBot="1">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
@@ -1253,7 +1258,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16.5" thickBot="1">
+    <row r="20" spans="1:3" ht="18" thickBot="1">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
@@ -1264,7 +1269,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16.5" thickBot="1">
+    <row r="21" spans="1:3" ht="18" thickBot="1">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
@@ -1275,7 +1280,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16.5" thickBot="1">
+    <row r="22" spans="1:3" ht="18" thickBot="1">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -1286,7 +1291,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16.5" thickBot="1">
+    <row r="23" spans="1:3" ht="18" thickBot="1">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -1297,7 +1302,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16.5" thickBot="1">
+    <row r="24" spans="1:3" ht="18" thickBot="1">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -1308,7 +1313,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16.5" thickBot="1">
+    <row r="25" spans="1:3" ht="18" thickBot="1">
       <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
@@ -1319,7 +1324,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16.5" thickBot="1">
+    <row r="26" spans="1:3" ht="18" thickBot="1">
       <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
@@ -1330,7 +1335,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16.5" thickBot="1">
+    <row r="27" spans="1:3" ht="18" thickBot="1">
       <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
@@ -1341,7 +1346,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16.5" thickBot="1">
+    <row r="28" spans="1:3" ht="18" thickBot="1">
       <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
@@ -1360,16 +1365,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="29.25" thickBot="1">
+    <row r="1" spans="1:3" ht="33" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
@@ -1380,7 +1385,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5" thickBot="1">
+    <row r="2" spans="1:3" ht="18" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>75</v>
       </c>
@@ -1391,7 +1396,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" thickBot="1">
+    <row r="3" spans="1:3" ht="18" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>76</v>
       </c>
@@ -1402,7 +1407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1">
+    <row r="4" spans="1:3" ht="18" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>77</v>
       </c>
@@ -1413,7 +1418,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" thickBot="1">
+    <row r="5" spans="1:3" ht="18" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>78</v>
       </c>
@@ -1424,7 +1429,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1">
+    <row r="6" spans="1:3" ht="18" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>79</v>
       </c>
@@ -1435,7 +1440,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.5" thickBot="1">
+    <row r="7" spans="1:3" ht="18" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>80</v>
       </c>
@@ -1446,7 +1451,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.5" thickBot="1">
+    <row r="8" spans="1:3" ht="18" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
@@ -1457,7 +1462,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5" thickBot="1">
+    <row r="9" spans="1:3" ht="18" thickBot="1">
       <c r="A9" s="3" t="s">
         <v>82</v>
       </c>
@@ -1468,7 +1473,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.5" thickBot="1">
+    <row r="10" spans="1:3" ht="18" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>83</v>
       </c>
@@ -1479,7 +1484,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16.5" thickBot="1">
+    <row r="11" spans="1:3" ht="18" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>84</v>
       </c>
@@ -1490,7 +1495,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.5" thickBot="1">
+    <row r="12" spans="1:3" ht="18" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>85</v>
       </c>
@@ -1501,7 +1506,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16.5" thickBot="1">
+    <row r="13" spans="1:3" ht="18" thickBot="1">
       <c r="A13" s="3" t="s">
         <v>86</v>
       </c>
@@ -1512,7 +1517,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.5" thickBot="1">
+    <row r="14" spans="1:3" ht="18" thickBot="1">
       <c r="A14" s="3" t="s">
         <v>87</v>
       </c>
@@ -1523,7 +1528,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16.5" thickBot="1">
+    <row r="15" spans="1:3" ht="18" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>88</v>
       </c>
@@ -1534,7 +1539,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16.5" thickBot="1">
+    <row r="16" spans="1:3" ht="18" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>89</v>
       </c>
@@ -1545,7 +1550,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16.5" thickBot="1">
+    <row r="17" spans="1:3" ht="18" thickBot="1">
       <c r="A17" s="3" t="s">
         <v>90</v>
       </c>
@@ -1556,7 +1561,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16.5" thickBot="1">
+    <row r="18" spans="1:3" ht="18" thickBot="1">
       <c r="A18" s="3" t="s">
         <v>91</v>
       </c>
@@ -1567,7 +1572,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16.5" thickBot="1">
+    <row r="19" spans="1:3" ht="18" thickBot="1">
       <c r="A19" s="3" t="s">
         <v>92</v>
       </c>
@@ -1578,7 +1583,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16.5" thickBot="1">
+    <row r="20" spans="1:3" ht="18" thickBot="1">
       <c r="A20" s="3" t="s">
         <v>93</v>
       </c>
@@ -1589,7 +1594,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16.5" thickBot="1">
+    <row r="21" spans="1:3" ht="18" thickBot="1">
       <c r="A21" s="3" t="s">
         <v>109</v>
       </c>
@@ -1600,7 +1605,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16.5" thickBot="1">
+    <row r="22" spans="1:3" ht="18" thickBot="1">
       <c r="A22" s="3" t="s">
         <v>114</v>
       </c>
@@ -1611,7 +1616,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16.5" thickBot="1">
+    <row r="23" spans="1:3" ht="18" thickBot="1">
       <c r="A23" s="3" t="s">
         <v>115</v>
       </c>
@@ -1622,7 +1627,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16.5" thickBot="1">
+    <row r="24" spans="1:3" ht="18" thickBot="1">
       <c r="A24" s="3" t="s">
         <v>116</v>
       </c>
@@ -1633,7 +1638,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16.5" thickBot="1">
+    <row r="25" spans="1:3" ht="18" thickBot="1">
       <c r="A25" s="3" t="s">
         <v>117</v>
       </c>
@@ -1644,7 +1649,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16.5" thickBot="1">
+    <row r="26" spans="1:3" ht="18" thickBot="1">
       <c r="A26" s="3" t="s">
         <v>118</v>
       </c>
@@ -1655,7 +1660,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16.5" thickBot="1">
+    <row r="27" spans="1:3" ht="18" thickBot="1">
       <c r="A27" s="3" t="s">
         <v>119</v>
       </c>
@@ -1674,16 +1679,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.5" thickBot="1">
+    <row r="1" spans="1:11" ht="65" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1718,7 +1723,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1">
+    <row r="2" spans="1:11" ht="18" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1749,7 +1754,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickBot="1">
+    <row r="3" spans="1:11" ht="18" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>154</v>
       </c>
@@ -1780,7 +1785,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1">
+    <row r="4" spans="1:11" ht="18" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1811,7 +1816,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickBot="1">
+    <row r="5" spans="1:11" ht="18" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1842,7 +1847,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="29.25" thickBot="1">
+    <row r="6" spans="1:11" ht="49" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>151</v>
       </c>
@@ -1877,7 +1882,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="29.25" thickBot="1">
+    <row r="7" spans="1:11" ht="49" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1912,7 +1917,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="29.25" thickBot="1">
+    <row r="8" spans="1:11" ht="49" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>70</v>
       </c>
@@ -1960,20 +1965,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1">
+    <row r="1" spans="1:7" ht="33" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
@@ -1996,7 +2001,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.5" thickBot="1">
+    <row r="2" spans="1:7" ht="18" thickBot="1">
       <c r="A2" s="7" t="s">
         <v>61</v>
       </c>
@@ -2017,7 +2022,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5" thickBot="1">
+    <row r="3" spans="1:7" ht="18" thickBot="1">
       <c r="A3" s="7" t="s">
         <v>62</v>
       </c>
@@ -2040,7 +2045,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1">
+    <row r="4" spans="1:7" ht="17" thickBot="1">
       <c r="A4" s="7" t="s">
         <v>124</v>
       </c>
@@ -2057,7 +2062,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1">
+    <row r="5" spans="1:7" ht="17" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>131</v>
       </c>
@@ -2074,7 +2079,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1">
+    <row r="6" spans="1:7" ht="17" thickBot="1">
       <c r="A6" s="7" t="s">
         <v>132</v>
       </c>
@@ -2091,7 +2096,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1">
+    <row r="7" spans="1:7" ht="17" thickBot="1">
       <c r="A7" s="7" t="s">
         <v>133</v>
       </c>
@@ -2116,20 +2121,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.25" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1">
+    <row r="1" spans="1:2" ht="17" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -2137,7 +2142,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.5" thickBot="1">
+    <row r="2" spans="1:2" ht="18" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>65</v>
       </c>
@@ -2145,11 +2150,19 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1">
+    <row r="3" spans="1:2" ht="18" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>158</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18" thickBot="1">
+      <c r="A4" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>159</v>
       </c>
     </row>

--- a/test/file.xlsx
+++ b/test/file.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_6E3657465EED7B3D68F2F4F0FC8208866CF0AD16" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B5885E08-94B4-684E-AC35-D2323618B48F}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="1780" windowWidth="22260" windowHeight="14380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3300" yWindow="1785" windowWidth="22260" windowHeight="14385" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="node_info" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="158">
   <si>
     <t>节点名称</t>
   </si>
@@ -556,10 +555,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>[D1,VNF2,D1]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Vs1</t>
   </si>
   <si>
@@ -633,22 +628,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>App2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>[D1,VNF1,D1]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>App3</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -775,7 +762,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1052,16 +1039,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="49" thickBot="1">
+    <row r="1" spans="1:3" ht="29.25" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1072,7 +1059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" thickBot="1">
+    <row r="2" spans="1:3" ht="16.5" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1081,7 +1068,7 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="18" thickBot="1">
+    <row r="3" spans="1:3" ht="16.5" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1090,7 +1077,7 @@
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" ht="18" thickBot="1">
+    <row r="4" spans="1:3" ht="16.5" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1099,7 +1086,7 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" ht="18" thickBot="1">
+    <row r="5" spans="1:3" ht="16.5" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1108,7 +1095,7 @@
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="18" thickBot="1">
+    <row r="6" spans="1:3" ht="16.5" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1117,7 +1104,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" ht="18" thickBot="1">
+    <row r="7" spans="1:3" ht="16.5" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1126,7 +1113,7 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" ht="18" thickBot="1">
+    <row r="8" spans="1:3" ht="16.5" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1137,20 +1124,20 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18" thickBot="1">
+    <row r="9" spans="1:3" ht="16.5" thickBot="1">
       <c r="A9" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" thickBot="1">
+    <row r="10" spans="1:3" ht="16.5" thickBot="1">
       <c r="A10" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>13</v>
@@ -1159,9 +1146,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18" thickBot="1">
+    <row r="11" spans="1:3" ht="16.5" thickBot="1">
       <c r="A11" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>13</v>
@@ -1170,20 +1157,20 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18" thickBot="1">
+    <row r="12" spans="1:3" ht="16.5" thickBot="1">
       <c r="A12" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18" thickBot="1">
+    <row r="13" spans="1:3" ht="16.5" thickBot="1">
       <c r="A13" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>13</v>
@@ -1192,9 +1179,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18" thickBot="1">
+    <row r="14" spans="1:3" ht="16.5" thickBot="1">
       <c r="A14" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>13</v>
@@ -1203,20 +1190,20 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="18" thickBot="1">
+    <row r="15" spans="1:3" ht="16.5" thickBot="1">
       <c r="A15" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18" thickBot="1">
+    <row r="16" spans="1:3" ht="16.5" thickBot="1">
       <c r="A16" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>13</v>
@@ -1225,9 +1212,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18" thickBot="1">
+    <row r="17" spans="1:3" ht="16.5" thickBot="1">
       <c r="A17" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>13</v>
@@ -1236,9 +1223,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18" thickBot="1">
+    <row r="18" spans="1:3" ht="16.5" thickBot="1">
       <c r="A18" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>13</v>
@@ -1247,7 +1234,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18" thickBot="1">
+    <row r="19" spans="1:3" ht="16.5" thickBot="1">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
@@ -1258,7 +1245,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18" thickBot="1">
+    <row r="20" spans="1:3" ht="16.5" thickBot="1">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
@@ -1269,7 +1256,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18" thickBot="1">
+    <row r="21" spans="1:3" ht="16.5" thickBot="1">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
@@ -1280,7 +1267,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18" thickBot="1">
+    <row r="22" spans="1:3" ht="16.5" thickBot="1">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -1291,7 +1278,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18" thickBot="1">
+    <row r="23" spans="1:3" ht="16.5" thickBot="1">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -1302,7 +1289,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="18" thickBot="1">
+    <row r="24" spans="1:3" ht="16.5" thickBot="1">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -1313,7 +1300,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18" thickBot="1">
+    <row r="25" spans="1:3" ht="16.5" thickBot="1">
       <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
@@ -1324,7 +1311,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18" thickBot="1">
+    <row r="26" spans="1:3" ht="16.5" thickBot="1">
       <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
@@ -1335,7 +1322,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18" thickBot="1">
+    <row r="27" spans="1:3" ht="16.5" thickBot="1">
       <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
@@ -1346,7 +1333,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18" thickBot="1">
+    <row r="28" spans="1:3" ht="16.5" thickBot="1">
       <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
@@ -1365,16 +1352,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="33" thickBot="1">
+    <row r="1" spans="1:3" ht="29.25" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
@@ -1385,7 +1372,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" thickBot="1">
+    <row r="2" spans="1:3" ht="16.5" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>75</v>
       </c>
@@ -1396,7 +1383,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" thickBot="1">
+    <row r="3" spans="1:3" ht="16.5" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>76</v>
       </c>
@@ -1407,7 +1394,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" thickBot="1">
+    <row r="4" spans="1:3" ht="16.5" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>77</v>
       </c>
@@ -1418,7 +1405,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18" thickBot="1">
+    <row r="5" spans="1:3" ht="16.5" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>78</v>
       </c>
@@ -1429,7 +1416,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18" thickBot="1">
+    <row r="6" spans="1:3" ht="16.5" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>79</v>
       </c>
@@ -1440,7 +1427,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18" thickBot="1">
+    <row r="7" spans="1:3" ht="16.5" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>80</v>
       </c>
@@ -1451,7 +1438,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18" thickBot="1">
+    <row r="8" spans="1:3" ht="16.5" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
@@ -1462,7 +1449,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18" thickBot="1">
+    <row r="9" spans="1:3" ht="16.5" thickBot="1">
       <c r="A9" s="3" t="s">
         <v>82</v>
       </c>
@@ -1473,7 +1460,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" thickBot="1">
+    <row r="10" spans="1:3" ht="16.5" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>83</v>
       </c>
@@ -1481,10 +1468,10 @@
         <v>96</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="18" thickBot="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>84</v>
       </c>
@@ -1492,10 +1479,10 @@
         <v>97</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="18" thickBot="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>85</v>
       </c>
@@ -1503,10 +1490,10 @@
         <v>100</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="18" thickBot="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" thickBot="1">
       <c r="A13" s="3" t="s">
         <v>86</v>
       </c>
@@ -1517,139 +1504,139 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18" thickBot="1">
+    <row r="14" spans="1:3" ht="16.5" thickBot="1">
       <c r="A14" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="18" thickBot="1">
+    <row r="15" spans="1:3" ht="16.5" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>88</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18" thickBot="1">
+    <row r="16" spans="1:3" ht="16.5" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18" thickBot="1">
+    <row r="17" spans="1:3" ht="16.5" thickBot="1">
       <c r="A17" s="3" t="s">
         <v>90</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18" thickBot="1">
+    <row r="18" spans="1:3" ht="16.5" thickBot="1">
       <c r="A18" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18" thickBot="1">
+    <row r="19" spans="1:3" ht="16.5" thickBot="1">
       <c r="A19" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18" thickBot="1">
+    <row r="20" spans="1:3" ht="16.5" thickBot="1">
       <c r="A20" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18" thickBot="1">
+    <row r="21" spans="1:3" ht="16.5" thickBot="1">
       <c r="A21" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18" thickBot="1">
+    <row r="22" spans="1:3" ht="16.5" thickBot="1">
       <c r="A22" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18" thickBot="1">
+    <row r="23" spans="1:3" ht="16.5" thickBot="1">
       <c r="A23" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="18" thickBot="1">
+    <row r="24" spans="1:3" ht="16.5" thickBot="1">
       <c r="A24" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18" thickBot="1">
+    <row r="25" spans="1:3" ht="16.5" thickBot="1">
       <c r="A25" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18" thickBot="1">
+    <row r="26" spans="1:3" ht="16.5" thickBot="1">
       <c r="A26" s="3" t="s">
         <v>118</v>
       </c>
@@ -1660,7 +1647,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18" thickBot="1">
+    <row r="27" spans="1:3" ht="16.5" thickBot="1">
       <c r="A27" s="3" t="s">
         <v>119</v>
       </c>
@@ -1679,16 +1666,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="65" thickBot="1">
+    <row r="1" spans="1:11" ht="43.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1723,7 +1710,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18" thickBot="1">
+    <row r="2" spans="1:11" ht="16.5" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1754,9 +1741,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18" thickBot="1">
+    <row r="3" spans="1:11" ht="16.5" thickBot="1">
       <c r="A3" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>50</v>
@@ -1785,7 +1772,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18" thickBot="1">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1816,7 +1803,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18" thickBot="1">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1847,9 +1834,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="49" thickBot="1">
+    <row r="6" spans="1:11" ht="29.25" thickBot="1">
       <c r="A6" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>52</v>
@@ -1882,7 +1869,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="49" thickBot="1">
+    <row r="7" spans="1:11" ht="29.25" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1917,7 +1904,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="49" thickBot="1">
+    <row r="8" spans="1:11" ht="29.25" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>70</v>
       </c>
@@ -1965,20 +1952,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="11.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" thickBot="1">
+    <row r="1" spans="1:7" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
@@ -2001,7 +1988,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18" thickBot="1">
+    <row r="2" spans="1:7" ht="16.5" thickBot="1">
       <c r="A2" s="7" t="s">
         <v>61</v>
       </c>
@@ -2012,7 +1999,7 @@
         <v>71</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="6">
@@ -2022,7 +2009,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" thickBot="1">
+    <row r="3" spans="1:7" ht="16.5" thickBot="1">
       <c r="A3" s="7" t="s">
         <v>62</v>
       </c>
@@ -2033,10 +2020,10 @@
         <v>137</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>157</v>
       </c>
       <c r="F3" s="6">
         <v>0.9</v>
@@ -2045,7 +2032,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17" thickBot="1">
+    <row r="4" spans="1:7" ht="15" thickBot="1">
       <c r="A4" s="7" t="s">
         <v>124</v>
       </c>
@@ -2062,7 +2049,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="17" thickBot="1">
+    <row r="5" spans="1:7" ht="15" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>131</v>
       </c>
@@ -2079,7 +2066,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="17" thickBot="1">
+    <row r="6" spans="1:7" ht="15" thickBot="1">
       <c r="A6" s="7" t="s">
         <v>132</v>
       </c>
@@ -2096,7 +2083,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="17" thickBot="1">
+    <row r="7" spans="1:7" ht="15" thickBot="1">
       <c r="A7" s="7" t="s">
         <v>133</v>
       </c>
@@ -2121,20 +2108,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1">
+    <row r="1" spans="1:2" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -2142,29 +2129,21 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" thickBot="1">
+    <row r="2" spans="1:2" ht="16.5" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18" thickBot="1">
-      <c r="A3" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18" thickBot="1">
-      <c r="A4" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>159</v>
-      </c>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" thickBot="1">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" thickBot="1">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/test/file.xlsx
+++ b/test/file.xlsx
@@ -2112,7 +2112,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>

--- a/test/file.xlsx
+++ b/test/file.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_87174B1A04115955D6ADAF934A0000866C1A35AB" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3FF63BB8-425E-F645-941C-5F83BC549E25}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="1785" windowWidth="22260" windowHeight="14385" activeTab="4"/>
+    <workbookView xWindow="3300" yWindow="1780" windowWidth="22260" windowHeight="14380" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="node_info" sheetId="1" r:id="rId1"/>
@@ -635,7 +636,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -762,7 +763,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1039,16 +1040,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="29.25" thickBot="1">
+    <row r="1" spans="1:3" ht="49" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1059,7 +1060,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5" thickBot="1">
+    <row r="2" spans="1:3" ht="18" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1068,7 +1069,7 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="16.5" thickBot="1">
+    <row r="3" spans="1:3" ht="18" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1077,7 +1078,7 @@
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1">
+    <row r="4" spans="1:3" ht="18" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" ht="16.5" thickBot="1">
+    <row r="5" spans="1:3" ht="18" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1095,7 +1096,7 @@
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1">
+    <row r="6" spans="1:3" ht="18" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1104,7 +1105,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" ht="16.5" thickBot="1">
+    <row r="7" spans="1:3" ht="18" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1113,7 +1114,7 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" ht="16.5" thickBot="1">
+    <row r="8" spans="1:3" ht="18" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1124,7 +1125,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5" thickBot="1">
+    <row r="9" spans="1:3" ht="18" thickBot="1">
       <c r="A9" s="3" t="s">
         <v>139</v>
       </c>
@@ -1135,7 +1136,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.5" thickBot="1">
+    <row r="10" spans="1:3" ht="18" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>140</v>
       </c>
@@ -1146,7 +1147,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16.5" thickBot="1">
+    <row r="11" spans="1:3" ht="18" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>141</v>
       </c>
@@ -1157,7 +1158,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.5" thickBot="1">
+    <row r="12" spans="1:3" ht="18" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>143</v>
       </c>
@@ -1168,7 +1169,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16.5" thickBot="1">
+    <row r="13" spans="1:3" ht="18" thickBot="1">
       <c r="A13" s="3" t="s">
         <v>146</v>
       </c>
@@ -1179,7 +1180,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.5" thickBot="1">
+    <row r="14" spans="1:3" ht="18" thickBot="1">
       <c r="A14" s="3" t="s">
         <v>147</v>
       </c>
@@ -1190,7 +1191,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16.5" thickBot="1">
+    <row r="15" spans="1:3" ht="18" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>145</v>
       </c>
@@ -1201,7 +1202,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16.5" thickBot="1">
+    <row r="16" spans="1:3" ht="18" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>148</v>
       </c>
@@ -1212,7 +1213,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16.5" thickBot="1">
+    <row r="17" spans="1:3" ht="18" thickBot="1">
       <c r="A17" s="3" t="s">
         <v>149</v>
       </c>
@@ -1223,7 +1224,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16.5" thickBot="1">
+    <row r="18" spans="1:3" ht="18" thickBot="1">
       <c r="A18" s="3" t="s">
         <v>151</v>
       </c>
@@ -1234,7 +1235,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16.5" thickBot="1">
+    <row r="19" spans="1:3" ht="18" thickBot="1">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
@@ -1245,7 +1246,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16.5" thickBot="1">
+    <row r="20" spans="1:3" ht="18" thickBot="1">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
@@ -1256,7 +1257,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16.5" thickBot="1">
+    <row r="21" spans="1:3" ht="18" thickBot="1">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
@@ -1267,7 +1268,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16.5" thickBot="1">
+    <row r="22" spans="1:3" ht="18" thickBot="1">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -1278,7 +1279,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16.5" thickBot="1">
+    <row r="23" spans="1:3" ht="18" thickBot="1">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -1289,7 +1290,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16.5" thickBot="1">
+    <row r="24" spans="1:3" ht="18" thickBot="1">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -1300,7 +1301,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16.5" thickBot="1">
+    <row r="25" spans="1:3" ht="18" thickBot="1">
       <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
@@ -1311,7 +1312,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16.5" thickBot="1">
+    <row r="26" spans="1:3" ht="18" thickBot="1">
       <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
@@ -1322,7 +1323,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16.5" thickBot="1">
+    <row r="27" spans="1:3" ht="18" thickBot="1">
       <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
@@ -1333,7 +1334,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16.5" thickBot="1">
+    <row r="28" spans="1:3" ht="18" thickBot="1">
       <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
@@ -1352,16 +1353,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="29.25" thickBot="1">
+    <row r="1" spans="1:3" ht="33" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
@@ -1372,7 +1373,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5" thickBot="1">
+    <row r="2" spans="1:3" ht="18" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>75</v>
       </c>
@@ -1383,7 +1384,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" thickBot="1">
+    <row r="3" spans="1:3" ht="18" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>76</v>
       </c>
@@ -1394,7 +1395,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1">
+    <row r="4" spans="1:3" ht="18" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>77</v>
       </c>
@@ -1405,7 +1406,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" thickBot="1">
+    <row r="5" spans="1:3" ht="18" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>78</v>
       </c>
@@ -1416,7 +1417,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1">
+    <row r="6" spans="1:3" ht="18" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>79</v>
       </c>
@@ -1427,7 +1428,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.5" thickBot="1">
+    <row r="7" spans="1:3" ht="18" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>80</v>
       </c>
@@ -1438,7 +1439,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.5" thickBot="1">
+    <row r="8" spans="1:3" ht="18" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
@@ -1449,7 +1450,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5" thickBot="1">
+    <row r="9" spans="1:3" ht="18" thickBot="1">
       <c r="A9" s="3" t="s">
         <v>82</v>
       </c>
@@ -1460,7 +1461,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.5" thickBot="1">
+    <row r="10" spans="1:3" ht="18" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>83</v>
       </c>
@@ -1471,7 +1472,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16.5" thickBot="1">
+    <row r="11" spans="1:3" ht="18" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>84</v>
       </c>
@@ -1482,7 +1483,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.5" thickBot="1">
+    <row r="12" spans="1:3" ht="18" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>85</v>
       </c>
@@ -1493,7 +1494,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16.5" thickBot="1">
+    <row r="13" spans="1:3" ht="18" thickBot="1">
       <c r="A13" s="3" t="s">
         <v>86</v>
       </c>
@@ -1504,7 +1505,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.5" thickBot="1">
+    <row r="14" spans="1:3" ht="18" thickBot="1">
       <c r="A14" s="3" t="s">
         <v>87</v>
       </c>
@@ -1515,7 +1516,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16.5" thickBot="1">
+    <row r="15" spans="1:3" ht="18" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>88</v>
       </c>
@@ -1526,7 +1527,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16.5" thickBot="1">
+    <row r="16" spans="1:3" ht="18" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>89</v>
       </c>
@@ -1537,7 +1538,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16.5" thickBot="1">
+    <row r="17" spans="1:3" ht="18" thickBot="1">
       <c r="A17" s="3" t="s">
         <v>90</v>
       </c>
@@ -1548,7 +1549,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16.5" thickBot="1">
+    <row r="18" spans="1:3" ht="18" thickBot="1">
       <c r="A18" s="3" t="s">
         <v>91</v>
       </c>
@@ -1559,7 +1560,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16.5" thickBot="1">
+    <row r="19" spans="1:3" ht="18" thickBot="1">
       <c r="A19" s="3" t="s">
         <v>92</v>
       </c>
@@ -1570,7 +1571,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16.5" thickBot="1">
+    <row r="20" spans="1:3" ht="18" thickBot="1">
       <c r="A20" s="3" t="s">
         <v>93</v>
       </c>
@@ -1581,7 +1582,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16.5" thickBot="1">
+    <row r="21" spans="1:3" ht="18" thickBot="1">
       <c r="A21" s="3" t="s">
         <v>109</v>
       </c>
@@ -1592,7 +1593,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16.5" thickBot="1">
+    <row r="22" spans="1:3" ht="18" thickBot="1">
       <c r="A22" s="3" t="s">
         <v>114</v>
       </c>
@@ -1603,7 +1604,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16.5" thickBot="1">
+    <row r="23" spans="1:3" ht="18" thickBot="1">
       <c r="A23" s="3" t="s">
         <v>115</v>
       </c>
@@ -1614,7 +1615,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16.5" thickBot="1">
+    <row r="24" spans="1:3" ht="18" thickBot="1">
       <c r="A24" s="3" t="s">
         <v>116</v>
       </c>
@@ -1625,7 +1626,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16.5" thickBot="1">
+    <row r="25" spans="1:3" ht="18" thickBot="1">
       <c r="A25" s="3" t="s">
         <v>117</v>
       </c>
@@ -1636,7 +1637,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16.5" thickBot="1">
+    <row r="26" spans="1:3" ht="18" thickBot="1">
       <c r="A26" s="3" t="s">
         <v>118</v>
       </c>
@@ -1647,7 +1648,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16.5" thickBot="1">
+    <row r="27" spans="1:3" ht="18" thickBot="1">
       <c r="A27" s="3" t="s">
         <v>119</v>
       </c>
@@ -1666,16 +1667,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.5" thickBot="1">
+    <row r="1" spans="1:11" ht="65" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1710,7 +1711,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1">
+    <row r="2" spans="1:11" ht="18" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1741,7 +1742,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickBot="1">
+    <row r="3" spans="1:11" ht="18" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>153</v>
       </c>
@@ -1772,7 +1773,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1">
+    <row r="4" spans="1:11" ht="18" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1803,7 +1804,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickBot="1">
+    <row r="5" spans="1:11" ht="18" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1834,7 +1835,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="29.25" thickBot="1">
+    <row r="6" spans="1:11" ht="49" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>150</v>
       </c>
@@ -1869,7 +1870,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="29.25" thickBot="1">
+    <row r="7" spans="1:11" ht="49" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1904,7 +1905,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="29.25" thickBot="1">
+    <row r="8" spans="1:11" ht="49" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>70</v>
       </c>
@@ -1952,20 +1953,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1">
+    <row r="1" spans="1:7" ht="33" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
@@ -1988,7 +1989,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.5" thickBot="1">
+    <row r="2" spans="1:7" ht="18" thickBot="1">
       <c r="A2" s="7" t="s">
         <v>61</v>
       </c>
@@ -2009,7 +2010,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5" thickBot="1">
+    <row r="3" spans="1:7" ht="18" thickBot="1">
       <c r="A3" s="7" t="s">
         <v>62</v>
       </c>
@@ -2032,7 +2033,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1">
+    <row r="4" spans="1:7" ht="17" thickBot="1">
       <c r="A4" s="7" t="s">
         <v>124</v>
       </c>
@@ -2049,7 +2050,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1">
+    <row r="5" spans="1:7" ht="17" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>131</v>
       </c>
@@ -2066,7 +2067,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1">
+    <row r="6" spans="1:7" ht="17" thickBot="1">
       <c r="A6" s="7" t="s">
         <v>132</v>
       </c>
@@ -2083,7 +2084,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1">
+    <row r="7" spans="1:7" ht="17" thickBot="1">
       <c r="A7" s="7" t="s">
         <v>133</v>
       </c>
@@ -2108,20 +2109,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1">
+    <row r="1" spans="1:2" ht="17" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -2129,21 +2130,13 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.5" thickBot="1">
+    <row r="2" spans="1:2" ht="18" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" thickBot="1">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/test/file.xlsx
+++ b/test/file.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_87174B1A04115955D6ADAF934A0000866C1A35AB" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3FF63BB8-425E-F645-941C-5F83BC549E25}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="1780" windowWidth="22260" windowHeight="14380" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3300" yWindow="1785" windowWidth="22260" windowHeight="14385" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="node_info" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="160">
   <si>
     <t>节点名称</t>
   </si>
@@ -632,11 +631,19 @@
     <t>[D1,VNF1,D1]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>App2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[D1,VNF2,D1]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -763,7 +770,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1040,16 +1047,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="49" thickBot="1">
+    <row r="1" spans="1:3" ht="29.25" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1060,7 +1067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" thickBot="1">
+    <row r="2" spans="1:3" ht="16.5" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1069,7 +1076,7 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="18" thickBot="1">
+    <row r="3" spans="1:3" ht="16.5" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1078,7 +1085,7 @@
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" ht="18" thickBot="1">
+    <row r="4" spans="1:3" ht="16.5" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1087,7 +1094,7 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" ht="18" thickBot="1">
+    <row r="5" spans="1:3" ht="16.5" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1096,7 +1103,7 @@
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="18" thickBot="1">
+    <row r="6" spans="1:3" ht="16.5" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1105,7 +1112,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" ht="18" thickBot="1">
+    <row r="7" spans="1:3" ht="16.5" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1114,7 +1121,7 @@
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" ht="18" thickBot="1">
+    <row r="8" spans="1:3" ht="16.5" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
@@ -1125,7 +1132,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18" thickBot="1">
+    <row r="9" spans="1:3" ht="16.5" thickBot="1">
       <c r="A9" s="3" t="s">
         <v>139</v>
       </c>
@@ -1136,7 +1143,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" thickBot="1">
+    <row r="10" spans="1:3" ht="16.5" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>140</v>
       </c>
@@ -1147,7 +1154,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18" thickBot="1">
+    <row r="11" spans="1:3" ht="16.5" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>141</v>
       </c>
@@ -1158,7 +1165,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18" thickBot="1">
+    <row r="12" spans="1:3" ht="16.5" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>143</v>
       </c>
@@ -1169,7 +1176,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18" thickBot="1">
+    <row r="13" spans="1:3" ht="16.5" thickBot="1">
       <c r="A13" s="3" t="s">
         <v>146</v>
       </c>
@@ -1180,7 +1187,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18" thickBot="1">
+    <row r="14" spans="1:3" ht="16.5" thickBot="1">
       <c r="A14" s="3" t="s">
         <v>147</v>
       </c>
@@ -1191,7 +1198,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="18" thickBot="1">
+    <row r="15" spans="1:3" ht="16.5" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>145</v>
       </c>
@@ -1202,7 +1209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18" thickBot="1">
+    <row r="16" spans="1:3" ht="16.5" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>148</v>
       </c>
@@ -1213,7 +1220,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18" thickBot="1">
+    <row r="17" spans="1:3" ht="16.5" thickBot="1">
       <c r="A17" s="3" t="s">
         <v>149</v>
       </c>
@@ -1224,7 +1231,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18" thickBot="1">
+    <row r="18" spans="1:3" ht="16.5" thickBot="1">
       <c r="A18" s="3" t="s">
         <v>151</v>
       </c>
@@ -1235,7 +1242,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18" thickBot="1">
+    <row r="19" spans="1:3" ht="16.5" thickBot="1">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
@@ -1246,7 +1253,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18" thickBot="1">
+    <row r="20" spans="1:3" ht="16.5" thickBot="1">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
@@ -1257,7 +1264,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18" thickBot="1">
+    <row r="21" spans="1:3" ht="16.5" thickBot="1">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
@@ -1268,7 +1275,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18" thickBot="1">
+    <row r="22" spans="1:3" ht="16.5" thickBot="1">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -1279,7 +1286,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18" thickBot="1">
+    <row r="23" spans="1:3" ht="16.5" thickBot="1">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -1290,7 +1297,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="18" thickBot="1">
+    <row r="24" spans="1:3" ht="16.5" thickBot="1">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -1301,7 +1308,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18" thickBot="1">
+    <row r="25" spans="1:3" ht="16.5" thickBot="1">
       <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
@@ -1312,7 +1319,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18" thickBot="1">
+    <row r="26" spans="1:3" ht="16.5" thickBot="1">
       <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
@@ -1323,7 +1330,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18" thickBot="1">
+    <row r="27" spans="1:3" ht="16.5" thickBot="1">
       <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
@@ -1334,7 +1341,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18" thickBot="1">
+    <row r="28" spans="1:3" ht="16.5" thickBot="1">
       <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
@@ -1353,16 +1360,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="33" thickBot="1">
+    <row r="1" spans="1:3" ht="29.25" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
@@ -1373,7 +1380,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" thickBot="1">
+    <row r="2" spans="1:3" ht="16.5" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>75</v>
       </c>
@@ -1384,7 +1391,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18" thickBot="1">
+    <row r="3" spans="1:3" ht="16.5" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>76</v>
       </c>
@@ -1395,7 +1402,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" thickBot="1">
+    <row r="4" spans="1:3" ht="16.5" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>77</v>
       </c>
@@ -1406,7 +1413,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="18" thickBot="1">
+    <row r="5" spans="1:3" ht="16.5" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>78</v>
       </c>
@@ -1417,7 +1424,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18" thickBot="1">
+    <row r="6" spans="1:3" ht="16.5" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>79</v>
       </c>
@@ -1428,7 +1435,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18" thickBot="1">
+    <row r="7" spans="1:3" ht="16.5" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>80</v>
       </c>
@@ -1439,7 +1446,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="18" thickBot="1">
+    <row r="8" spans="1:3" ht="16.5" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
@@ -1450,7 +1457,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="18" thickBot="1">
+    <row r="9" spans="1:3" ht="16.5" thickBot="1">
       <c r="A9" s="3" t="s">
         <v>82</v>
       </c>
@@ -1461,7 +1468,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" thickBot="1">
+    <row r="10" spans="1:3" ht="16.5" thickBot="1">
       <c r="A10" s="3" t="s">
         <v>83</v>
       </c>
@@ -1472,7 +1479,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="18" thickBot="1">
+    <row r="11" spans="1:3" ht="16.5" thickBot="1">
       <c r="A11" s="3" t="s">
         <v>84</v>
       </c>
@@ -1483,7 +1490,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18" thickBot="1">
+    <row r="12" spans="1:3" ht="16.5" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>85</v>
       </c>
@@ -1494,7 +1501,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="18" thickBot="1">
+    <row r="13" spans="1:3" ht="16.5" thickBot="1">
       <c r="A13" s="3" t="s">
         <v>86</v>
       </c>
@@ -1505,7 +1512,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18" thickBot="1">
+    <row r="14" spans="1:3" ht="16.5" thickBot="1">
       <c r="A14" s="3" t="s">
         <v>87</v>
       </c>
@@ -1516,7 +1523,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="18" thickBot="1">
+    <row r="15" spans="1:3" ht="16.5" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>88</v>
       </c>
@@ -1527,7 +1534,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18" thickBot="1">
+    <row r="16" spans="1:3" ht="16.5" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>89</v>
       </c>
@@ -1538,7 +1545,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18" thickBot="1">
+    <row r="17" spans="1:3" ht="16.5" thickBot="1">
       <c r="A17" s="3" t="s">
         <v>90</v>
       </c>
@@ -1549,7 +1556,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18" thickBot="1">
+    <row r="18" spans="1:3" ht="16.5" thickBot="1">
       <c r="A18" s="3" t="s">
         <v>91</v>
       </c>
@@ -1560,7 +1567,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18" thickBot="1">
+    <row r="19" spans="1:3" ht="16.5" thickBot="1">
       <c r="A19" s="3" t="s">
         <v>92</v>
       </c>
@@ -1571,7 +1578,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18" thickBot="1">
+    <row r="20" spans="1:3" ht="16.5" thickBot="1">
       <c r="A20" s="3" t="s">
         <v>93</v>
       </c>
@@ -1582,7 +1589,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18" thickBot="1">
+    <row r="21" spans="1:3" ht="16.5" thickBot="1">
       <c r="A21" s="3" t="s">
         <v>109</v>
       </c>
@@ -1593,7 +1600,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18" thickBot="1">
+    <row r="22" spans="1:3" ht="16.5" thickBot="1">
       <c r="A22" s="3" t="s">
         <v>114</v>
       </c>
@@ -1604,7 +1611,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18" thickBot="1">
+    <row r="23" spans="1:3" ht="16.5" thickBot="1">
       <c r="A23" s="3" t="s">
         <v>115</v>
       </c>
@@ -1615,7 +1622,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="18" thickBot="1">
+    <row r="24" spans="1:3" ht="16.5" thickBot="1">
       <c r="A24" s="3" t="s">
         <v>116</v>
       </c>
@@ -1626,7 +1633,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18" thickBot="1">
+    <row r="25" spans="1:3" ht="16.5" thickBot="1">
       <c r="A25" s="3" t="s">
         <v>117</v>
       </c>
@@ -1637,7 +1644,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18" thickBot="1">
+    <row r="26" spans="1:3" ht="16.5" thickBot="1">
       <c r="A26" s="3" t="s">
         <v>118</v>
       </c>
@@ -1648,7 +1655,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18" thickBot="1">
+    <row r="27" spans="1:3" ht="16.5" thickBot="1">
       <c r="A27" s="3" t="s">
         <v>119</v>
       </c>
@@ -1667,16 +1674,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="65" thickBot="1">
+    <row r="1" spans="1:11" ht="43.5" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1711,7 +1718,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18" thickBot="1">
+    <row r="2" spans="1:11" ht="16.5" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1742,7 +1749,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="18" thickBot="1">
+    <row r="3" spans="1:11" ht="16.5" thickBot="1">
       <c r="A3" s="3" t="s">
         <v>153</v>
       </c>
@@ -1773,7 +1780,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="18" thickBot="1">
+    <row r="4" spans="1:11" ht="16.5" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1804,7 +1811,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="18" thickBot="1">
+    <row r="5" spans="1:11" ht="16.5" thickBot="1">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1835,7 +1842,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="49" thickBot="1">
+    <row r="6" spans="1:11" ht="29.25" thickBot="1">
       <c r="A6" s="3" t="s">
         <v>150</v>
       </c>
@@ -1870,7 +1877,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="49" thickBot="1">
+    <row r="7" spans="1:11" ht="29.25" thickBot="1">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1905,7 +1912,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="49" thickBot="1">
+    <row r="8" spans="1:11" ht="29.25" thickBot="1">
       <c r="A8" s="3" t="s">
         <v>70</v>
       </c>
@@ -1953,20 +1960,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="11.1640625" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33" thickBot="1">
+    <row r="1" spans="1:7" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
@@ -1989,7 +1996,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18" thickBot="1">
+    <row r="2" spans="1:7" ht="16.5" thickBot="1">
       <c r="A2" s="7" t="s">
         <v>61</v>
       </c>
@@ -2010,7 +2017,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" thickBot="1">
+    <row r="3" spans="1:7" ht="16.5" thickBot="1">
       <c r="A3" s="7" t="s">
         <v>62</v>
       </c>
@@ -2033,7 +2040,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17" thickBot="1">
+    <row r="4" spans="1:7" ht="15" thickBot="1">
       <c r="A4" s="7" t="s">
         <v>124</v>
       </c>
@@ -2050,7 +2057,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="17" thickBot="1">
+    <row r="5" spans="1:7" ht="15" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>131</v>
       </c>
@@ -2067,7 +2074,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="17" thickBot="1">
+    <row r="6" spans="1:7" ht="15" thickBot="1">
       <c r="A6" s="7" t="s">
         <v>132</v>
       </c>
@@ -2084,7 +2091,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="17" thickBot="1">
+    <row r="7" spans="1:7" ht="15" thickBot="1">
       <c r="A7" s="7" t="s">
         <v>133</v>
       </c>
@@ -2109,20 +2116,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17" thickBot="1">
+    <row r="1" spans="1:2" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -2130,12 +2137,20 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18" thickBot="1">
+    <row r="2" spans="1:2" ht="16.5" thickBot="1">
       <c r="A2" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" thickBot="1">
+      <c r="A3" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/test/file.xlsx
+++ b/test/file.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20370"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881CF0B0-3394-4674-A618-395D4E941173}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="1785" windowWidth="22260" windowHeight="14385" activeTab="4"/>
+    <workbookView xWindow="3300" yWindow="1785" windowWidth="22260" windowHeight="14385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="node_info" sheetId="1" r:id="rId1"/>
@@ -643,8 +644,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1047,16 +1048,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="29.25" thickBot="1">
+    <row r="1" spans="1:3" ht="47.65" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1067,7 +1068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5" thickBot="1">
+    <row r="2" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1076,7 +1077,7 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="16.5" thickBot="1">
+    <row r="3" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1085,7 +1086,7 @@
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1">
+    <row r="4" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1094,7 +1095,7 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5" spans="1:3" ht="16.5" thickBot="1">
+    <row r="5" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1103,7 +1104,7 @@
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1">
+    <row r="6" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1112,27 +1113,27 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" ht="16.5" thickBot="1">
+    <row r="7" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" ht="16.5" thickBot="1">
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="16.5" thickBot="1">
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>139</v>
       </c>
@@ -1143,7 +1144,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.5" thickBot="1">
+    <row r="10" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>140</v>
       </c>
@@ -1154,7 +1155,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16.5" thickBot="1">
+    <row r="11" spans="1:3" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>141</v>
       </c>
@@ -1165,7 +1166,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.5" thickBot="1">
+    <row r="12" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>143</v>
       </c>
@@ -1176,7 +1177,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16.5" thickBot="1">
+    <row r="13" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>146</v>
       </c>
@@ -1187,7 +1188,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.5" thickBot="1">
+    <row r="14" spans="1:3" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>147</v>
       </c>
@@ -1198,7 +1199,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16.5" thickBot="1">
+    <row r="15" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>145</v>
       </c>
@@ -1209,7 +1210,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16.5" thickBot="1">
+    <row r="16" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>148</v>
       </c>
@@ -1220,7 +1221,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16.5" thickBot="1">
+    <row r="17" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>149</v>
       </c>
@@ -1231,7 +1232,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16.5" thickBot="1">
+    <row r="18" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>151</v>
       </c>
@@ -1242,7 +1243,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16.5" thickBot="1">
+    <row r="19" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
@@ -1253,7 +1254,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16.5" thickBot="1">
+    <row r="20" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
@@ -1264,7 +1265,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16.5" thickBot="1">
+    <row r="21" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>26</v>
       </c>
@@ -1275,7 +1276,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16.5" thickBot="1">
+    <row r="22" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
@@ -1286,7 +1287,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16.5" thickBot="1">
+    <row r="23" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -1297,7 +1298,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16.5" thickBot="1">
+    <row r="24" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -1308,7 +1309,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16.5" thickBot="1">
+    <row r="25" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
@@ -1319,7 +1320,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16.5" thickBot="1">
+    <row r="26" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
@@ -1330,7 +1331,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16.5" thickBot="1">
+    <row r="27" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>32</v>
       </c>
@@ -1341,7 +1342,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16.5" thickBot="1">
+    <row r="28" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
@@ -1360,16 +1361,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="29.25" thickBot="1">
+    <row r="1" spans="1:3" ht="31.9" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
@@ -1380,7 +1381,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.5" thickBot="1">
+    <row r="2" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>75</v>
       </c>
@@ -1391,7 +1392,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" thickBot="1">
+    <row r="3" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>76</v>
       </c>
@@ -1402,7 +1403,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1">
+    <row r="4" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>77</v>
       </c>
@@ -1413,7 +1414,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" thickBot="1">
+    <row r="5" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>78</v>
       </c>
@@ -1424,7 +1425,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.5" thickBot="1">
+    <row r="6" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>79</v>
       </c>
@@ -1435,7 +1436,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16.5" thickBot="1">
+    <row r="7" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>80</v>
       </c>
@@ -1446,7 +1447,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.5" thickBot="1">
+    <row r="8" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>81</v>
       </c>
@@ -1457,7 +1458,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.5" thickBot="1">
+    <row r="9" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>82</v>
       </c>
@@ -1468,7 +1469,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16.5" thickBot="1">
+    <row r="10" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>83</v>
       </c>
@@ -1479,7 +1480,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16.5" thickBot="1">
+    <row r="11" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>84</v>
       </c>
@@ -1490,7 +1491,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.5" thickBot="1">
+    <row r="12" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>85</v>
       </c>
@@ -1501,7 +1502,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16.5" thickBot="1">
+    <row r="13" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>86</v>
       </c>
@@ -1512,7 +1513,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="16.5" thickBot="1">
+    <row r="14" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>87</v>
       </c>
@@ -1523,7 +1524,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="16.5" thickBot="1">
+    <row r="15" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>88</v>
       </c>
@@ -1534,7 +1535,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="16.5" thickBot="1">
+    <row r="16" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>89</v>
       </c>
@@ -1545,7 +1546,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16.5" thickBot="1">
+    <row r="17" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>90</v>
       </c>
@@ -1556,7 +1557,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16.5" thickBot="1">
+    <row r="18" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>91</v>
       </c>
@@ -1567,7 +1568,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="16.5" thickBot="1">
+    <row r="19" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>92</v>
       </c>
@@ -1578,7 +1579,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16.5" thickBot="1">
+    <row r="20" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>93</v>
       </c>
@@ -1589,7 +1590,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="16.5" thickBot="1">
+    <row r="21" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>109</v>
       </c>
@@ -1600,7 +1601,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16.5" thickBot="1">
+    <row r="22" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>114</v>
       </c>
@@ -1611,7 +1612,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16.5" thickBot="1">
+    <row r="23" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>115</v>
       </c>
@@ -1622,7 +1623,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="16.5" thickBot="1">
+    <row r="24" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>116</v>
       </c>
@@ -1633,7 +1634,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16.5" thickBot="1">
+    <row r="25" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>117</v>
       </c>
@@ -1644,7 +1645,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16.5" thickBot="1">
+    <row r="26" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>118</v>
       </c>
@@ -1655,7 +1656,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16.5" thickBot="1">
+    <row r="27" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>119</v>
       </c>
@@ -1674,16 +1675,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.5" thickBot="1">
+    <row r="1" spans="1:11" ht="63.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1718,7 +1719,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1">
+    <row r="2" spans="1:11" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -1749,7 +1750,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="16.5" thickBot="1">
+    <row r="3" spans="1:11" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>153</v>
       </c>
@@ -1780,7 +1781,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1">
+    <row r="4" spans="1:11" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
@@ -1811,7 +1812,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.5" thickBot="1">
+    <row r="5" spans="1:11" ht="16.899999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1842,7 +1843,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="29.25" thickBot="1">
+    <row r="6" spans="1:11" ht="47.65" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>150</v>
       </c>
@@ -1877,7 +1878,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="29.25" thickBot="1">
+    <row r="7" spans="1:11" ht="47.65" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1912,7 +1913,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="29.25" thickBot="1">
+    <row r="8" spans="1:11" ht="47.65" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>70</v>
       </c>
@@ -1947,7 +1948,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="H15" t="s">
         <v>69</v>
       </c>
@@ -1960,20 +1961,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="11.1328125" customWidth="1"/>
+    <col min="3" max="3" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1">
+    <row r="1" spans="1:7" ht="31.9" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>123</v>
       </c>
@@ -1996,7 +1997,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="16.5" thickBot="1">
+    <row r="2" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
         <v>61</v>
       </c>
@@ -2017,7 +2018,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="16.5" thickBot="1">
+    <row r="3" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="7" t="s">
         <v>62</v>
       </c>
@@ -2040,7 +2041,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1">
+    <row r="4" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="7" t="s">
         <v>124</v>
       </c>
@@ -2057,7 +2058,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1">
+    <row r="5" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
         <v>131</v>
       </c>
@@ -2074,7 +2075,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1">
+    <row r="6" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
         <v>132</v>
       </c>
@@ -2091,7 +2092,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1">
+    <row r="7" spans="1:7" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="7" t="s">
         <v>133</v>
       </c>
@@ -2116,20 +2117,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="1" max="1" width="10.1328125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1">
+    <row r="1" spans="1:2" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>63</v>
       </c>
@@ -2137,7 +2138,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="16.5" thickBot="1">
+    <row r="2" spans="1:2" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>65</v>
       </c>
@@ -2145,7 +2146,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" thickBot="1">
+    <row r="3" spans="1:2" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>158</v>
       </c>

--- a/test/file.xlsx
+++ b/test/file.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881CF0B0-3394-4674-A618-395D4E941173}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C49847-50D4-4556-9DC1-0EA51EBE6162}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3300" yWindow="1785" windowWidth="22260" windowHeight="14385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="161">
   <si>
     <t>节点名称</t>
   </si>
@@ -638,6 +638,10 @@
   </si>
   <si>
     <t>[D1,VNF2,D1]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCE</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1052,7 +1056,7 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1131,7 +1135,9 @@
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">

--- a/test/file.xlsx
+++ b/test/file.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C49847-50D4-4556-9DC1-0EA51EBE6162}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E72EB7B-811A-402C-A5D0-162C4D92510F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="1785" windowWidth="22260" windowHeight="14385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3300" yWindow="1785" windowWidth="22260" windowHeight="14385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="node_info" sheetId="1" r:id="rId1"/>
@@ -633,15 +633,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>NCE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>App2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>[D1,VNF2,D1]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NCE</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1055,7 +1055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -1136,7 +1136,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
@@ -2126,8 +2126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2154,10 +2154,10 @@
     </row>
     <row r="3" spans="1:2" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
